--- a/chuying/visualization/2.with timer/output-total.xlsx
+++ b/chuying/visualization/2.with timer/output-total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chuyinghe/Documents/duckdb-master-rl/chuying/visualization/2.with timer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDCF25E-7C79-E849-A45D-C302F1E94895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D246AD91-DD34-AF44-9382-8D22772B0587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="-21140" windowWidth="17000" windowHeight="19540" xr2:uid="{4BC63D49-B4F6-E248-AB4E-285880F5BF28}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">header!$A$1:$C$114</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">workspace!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">workspace!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="127">
   <si>
     <t>Query</t>
   </si>
@@ -782,17 +782,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C65D470-C02B-104A-988B-0126A948A388}">
-  <dimension ref="A1:C340"/>
+  <dimension ref="A1:C1131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="E238" sqref="E238"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -808,906 +809,1019 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B2" s="3"/>
       <c r="C2">
-        <v>949.62400000000002</v>
+        <v>2321.0500000000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B3" s="3"/>
       <c r="C3">
-        <v>834.54499999999996</v>
+        <v>2409.92</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4">
-        <v>1325.74</v>
+        <v>907.00900000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5">
-        <v>162.667</v>
+        <v>1348.49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6">
-        <v>113.994</v>
+        <v>416.60899999999998</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7">
-        <v>165.268</v>
+        <v>1257.05</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8">
-        <v>245.749</v>
+        <v>1156.92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9">
-        <v>620.04200000000003</v>
+        <v>3111.66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10">
-        <v>232.523</v>
+        <v>953.72500000000002</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="C11">
-        <v>890.36599999999999</v>
+        <v>1720.59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12">
-        <v>1853.62</v>
+        <v>4318.2700000000004</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13">
-        <v>1176.0999999999999</v>
+        <v>163.40700000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14">
-        <v>1110.74</v>
+        <v>947.73699999999997</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15">
-        <v>1393.05</v>
+        <v>165.803</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16">
-        <v>1319.14</v>
+        <v>1391.61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17">
-        <v>1186.77</v>
+        <v>1111.0999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="C18">
-        <v>1581.55</v>
+        <v>593.45399999999995</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B19" s="3"/>
       <c r="C19">
-        <v>561.86500000000001</v>
+        <v>615.56700000000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B20" s="3"/>
       <c r="C20">
-        <v>538.13699999999994</v>
+        <v>1571.72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B21" s="3"/>
       <c r="C21">
-        <v>1279</v>
+        <v>1455.54</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B22" s="3"/>
       <c r="C22">
-        <v>1722.43</v>
+        <v>4276.2299999999996</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B23" s="3"/>
       <c r="C23">
-        <v>4336.1000000000004</v>
+        <v>120.574</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B24" s="3"/>
       <c r="C24">
-        <v>6183.84</v>
+        <v>468.26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B25" s="3"/>
       <c r="C25">
-        <v>4287.38</v>
+        <v>1074.4000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="C26">
-        <v>4475.6000000000004</v>
+        <v>390.14</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B27" s="3"/>
       <c r="C27">
-        <v>1459.09</v>
+        <v>5293.72</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B28" s="3"/>
       <c r="C28">
-        <v>1276.8900000000001</v>
+        <v>541.77</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B29" s="3"/>
       <c r="C29">
-        <v>1190.25</v>
+        <v>629.36099999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B30" s="3"/>
       <c r="C30">
-        <v>1257.54</v>
+        <v>747.41099999999994</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B31" s="3"/>
       <c r="C31">
-        <v>3139.17</v>
+        <v>1531.16</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="B32" s="3"/>
       <c r="C32">
-        <v>1945.19</v>
+        <v>1923.01</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B33" s="3"/>
       <c r="C33">
-        <v>5299.06</v>
+        <v>950.15899999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B34" s="3"/>
       <c r="C34">
-        <v>1314.02</v>
+        <v>259.35300000000001</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B35" s="3"/>
       <c r="C35">
-        <v>2228.8000000000002</v>
+        <v>1365.68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B36" s="3"/>
       <c r="C36">
-        <v>1448.97</v>
+        <v>362.822</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B37" s="3"/>
       <c r="C37">
-        <v>1123.47</v>
+        <v>247.96199999999999</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B38" s="3"/>
       <c r="C38">
-        <v>1528.05</v>
+        <v>4300.57</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B39" s="3"/>
       <c r="C39">
-        <v>4277.05</v>
+        <v>524.34400000000005</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B40" s="3"/>
       <c r="C40">
-        <v>320.56799999999998</v>
+        <v>865.255</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B41" s="3"/>
       <c r="C41">
-        <v>387.62099999999998</v>
+        <v>1332.59</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B42" s="3"/>
       <c r="C42">
-        <v>147.946</v>
+        <v>650.92700000000002</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B43" s="3"/>
       <c r="C43">
-        <v>457.69400000000002</v>
+        <v>739.11599999999999</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B44" s="3"/>
       <c r="C44">
-        <v>1018.78</v>
+        <v>835.80700000000002</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>95</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B45" s="3"/>
       <c r="C45">
-        <v>470.50299999999999</v>
+        <v>323.089</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B46" s="3"/>
       <c r="C46">
-        <v>1329.13</v>
+        <v>1642.01</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B47" s="3"/>
       <c r="C47">
-        <v>975.40499999999997</v>
+        <v>455.16300000000001</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B48" s="3"/>
       <c r="C48">
-        <v>537.41899999999998</v>
+        <v>1672.69</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B49" s="3"/>
       <c r="C49">
-        <v>980.51800000000003</v>
+        <v>476.649</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B50" s="3"/>
       <c r="C50">
-        <v>927.44899999999996</v>
+        <v>1102.33</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B51" s="3"/>
       <c r="C51">
-        <v>917.04300000000001</v>
+        <v>561.48900000000003</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B52" s="3"/>
       <c r="C52">
-        <v>1458.9</v>
+        <v>1283.25</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B53" s="3"/>
       <c r="C53">
-        <v>1581.17</v>
+        <v>1263.6199999999999</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B54" s="3"/>
       <c r="C54">
-        <v>542.99300000000005</v>
+        <v>1103.54</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B55" s="3"/>
       <c r="C55">
-        <v>456.37299999999999</v>
+        <v>966.78</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B56" s="3"/>
       <c r="C56">
-        <v>635.471</v>
+        <v>1458.08</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B57" s="3"/>
       <c r="C57">
-        <v>1555.18</v>
+        <v>1091.98</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B58" s="3"/>
       <c r="C58">
-        <v>1353.57</v>
+        <v>1666.08</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B59" s="3"/>
       <c r="C59">
-        <v>2995.53</v>
+        <v>1328.84</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B60" s="3"/>
       <c r="C60">
-        <v>1214.4000000000001</v>
+        <v>371.74799999999999</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B61" s="3"/>
       <c r="C61">
-        <v>4833.37</v>
+        <v>971.12699999999995</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B62" s="3"/>
       <c r="C62">
-        <v>865.61500000000001</v>
+        <v>1680.19</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B63" s="3"/>
       <c r="C63">
-        <v>746.69100000000003</v>
+        <v>1199.8699999999999</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B64" s="3"/>
       <c r="C64">
-        <v>988.71100000000001</v>
+        <v>1254.22</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B65" s="3"/>
       <c r="C65">
-        <v>645.58500000000004</v>
+        <v>1400.52</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B66" s="3"/>
       <c r="C66">
-        <v>630.35400000000004</v>
+        <v>1310.74</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B67" s="3"/>
       <c r="C67">
-        <v>962.84500000000003</v>
+        <v>2989.55</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>92</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B68" s="3"/>
       <c r="C68">
-        <v>1368.17</v>
+        <v>879.98599999999999</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B69" s="3"/>
       <c r="C69">
-        <v>784.495</v>
+        <v>4452.62</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B70" s="3"/>
       <c r="C70">
-        <v>1402.85</v>
+        <v>1017.7</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B71" s="3"/>
       <c r="C71">
-        <v>1291.8699999999999</v>
+        <v>417.44299999999998</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B72" s="3"/>
       <c r="C72">
-        <v>1095.79</v>
+        <v>1762.29</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B73" s="3"/>
       <c r="C73">
-        <v>1508.07</v>
+        <v>4642.25</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B74" s="3"/>
       <c r="C74">
-        <v>1150.21</v>
+        <v>114.96899999999999</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B75" s="3"/>
       <c r="C75">
-        <v>1093.43</v>
+        <v>540.35699999999997</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B76" s="3"/>
       <c r="C76">
-        <v>1104.8800000000001</v>
+        <v>1119.31</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B77" s="3"/>
       <c r="C77">
-        <v>1104.53</v>
+        <v>1561.92</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B78" s="3"/>
       <c r="C78">
-        <v>1641.23</v>
+        <v>320.55</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B79" s="3"/>
       <c r="C79">
-        <v>1617.35</v>
+        <v>540.26499999999999</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B80" s="3"/>
       <c r="C80">
-        <v>2327.5300000000002</v>
+        <v>1515.58</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B81" s="3"/>
       <c r="C81">
-        <v>1661.88</v>
+        <v>916.86300000000006</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B82" s="3"/>
       <c r="C82">
-        <v>1674.24</v>
+        <v>990.68799999999999</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B83" s="3"/>
       <c r="C83">
-        <v>2452.9499999999998</v>
+        <v>649.99800000000005</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B84" s="3"/>
       <c r="C84">
-        <v>364.70499999999998</v>
+        <v>1190.3499999999999</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B85" s="3"/>
       <c r="C85">
-        <v>367.048</v>
+        <v>1620.24</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B86" s="3"/>
       <c r="C86">
-        <v>469.75299999999999</v>
+        <v>535.99900000000002</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B87" s="3"/>
       <c r="C87">
-        <v>428.26900000000001</v>
+        <v>1308.51</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B88" s="3"/>
       <c r="C88">
-        <v>1264.68</v>
+        <v>428.79199999999997</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B89" s="3"/>
       <c r="C89">
-        <v>1075.1300000000001</v>
+        <v>148.53299999999999</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B90" s="3"/>
       <c r="C90">
-        <v>541.08399999999995</v>
+        <v>2465.3000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B91" s="3"/>
       <c r="C91">
-        <v>1773.09</v>
+        <v>782.58299999999997</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B92" s="3"/>
       <c r="C92">
-        <v>311.69499999999999</v>
+        <v>599.72400000000005</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B93" s="3"/>
       <c r="C93">
-        <v>121.011</v>
+        <v>310.44200000000001</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B94" s="3"/>
       <c r="C94">
-        <v>522.471</v>
+        <v>6166.3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>105</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B95" s="3"/>
       <c r="C95">
-        <v>955.255</v>
+        <v>2209.48</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>109</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B96" s="3"/>
       <c r="C96">
-        <v>645.63400000000001</v>
+        <v>472.435</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B97" s="3"/>
       <c r="C97">
-        <v>1390.86</v>
+        <v>943.54700000000003</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B98" s="3"/>
       <c r="C98">
-        <v>316.8</v>
+        <v>1452.19</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B99" s="3"/>
       <c r="C99">
-        <v>291.04899999999998</v>
+        <v>1577.03</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B100" s="3"/>
       <c r="C100">
-        <v>258.31200000000001</v>
+        <v>1097.06</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B101" s="3"/>
       <c r="C101">
-        <v>420.85199999999998</v>
+        <v>3367.31</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B102" s="3"/>
       <c r="C102">
-        <v>419.798</v>
+        <v>366.55399999999997</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B103" s="3"/>
       <c r="C103">
-        <v>2395.2600000000002</v>
+        <v>1166.73</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B104" s="3"/>
       <c r="C104">
-        <v>597.59699999999998</v>
+        <v>228.7</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B105" s="3"/>
       <c r="C105">
-        <v>366.18799999999999</v>
+        <v>1280.29</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B106" s="3"/>
       <c r="C106">
-        <v>1677.92</v>
+        <v>456.80399999999997</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B107" s="3"/>
       <c r="C107">
-        <v>596.09</v>
+        <v>631.42499999999995</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B108" s="3"/>
       <c r="C108">
-        <v>470.96899999999999</v>
+        <v>1827.08</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B109" s="3"/>
       <c r="C109">
-        <v>4626.74</v>
+        <v>4814.71</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B110" s="3"/>
       <c r="C110">
-        <v>3378.2</v>
+        <v>289.733</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B111" s="3"/>
       <c r="C111">
-        <v>938.71299999999997</v>
+        <v>1142.1400000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B112" s="3"/>
       <c r="C112">
-        <v>734.75699999999995</v>
+        <v>1377.97</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B113" s="3"/>
       <c r="C113">
-        <v>1162.69</v>
+        <v>1296.8599999999999</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B114" s="3"/>
       <c r="C114">
-        <v>1252</v>
+        <v>1183.1199999999999</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -1715,7 +1829,7 @@
         <v>34</v>
       </c>
       <c r="C115">
-        <v>2329.16</v>
+        <v>2332.4</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -1723,7 +1837,7 @@
         <v>30</v>
       </c>
       <c r="C116">
-        <v>2412.7199999999998</v>
+        <v>2401.09</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -1731,7 +1845,7 @@
         <v>8</v>
       </c>
       <c r="C117">
-        <v>911.76800000000003</v>
+        <v>926.47299999999996</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -1739,7 +1853,7 @@
         <v>43</v>
       </c>
       <c r="C118">
-        <v>1364.33</v>
+        <v>1344.29</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -1747,7 +1861,7 @@
         <v>20</v>
       </c>
       <c r="C119">
-        <v>417.21899999999999</v>
+        <v>417.16199999999998</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -1755,7 +1869,7 @@
         <v>22</v>
       </c>
       <c r="C120">
-        <v>1270.71</v>
+        <v>1262.1199999999999</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -1763,7 +1877,7 @@
         <v>56</v>
       </c>
       <c r="C121">
-        <v>1169.8800000000001</v>
+        <v>1169.3599999999999</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -1771,7 +1885,7 @@
         <v>27</v>
       </c>
       <c r="C122">
-        <v>3134.83</v>
+        <v>3121.38</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -1779,7 +1893,7 @@
         <v>105</v>
       </c>
       <c r="C123">
-        <v>954.77</v>
+        <v>948.69100000000003</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -1787,7 +1901,7 @@
         <v>98</v>
       </c>
       <c r="C124">
-        <v>1717.92</v>
+        <v>1720.5</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -1795,7 +1909,7 @@
         <v>102</v>
       </c>
       <c r="C125">
-        <v>4389.3100000000004</v>
+        <v>4325.08</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -1803,7 +1917,7 @@
         <v>26</v>
       </c>
       <c r="C126">
-        <v>163.315</v>
+        <v>165.62299999999999</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -1811,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>951.34699999999998</v>
+        <v>944.86300000000006</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -1819,7 +1933,7 @@
         <v>16</v>
       </c>
       <c r="C128">
-        <v>163.297</v>
+        <v>164.702</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -1827,7 +1941,7 @@
         <v>113</v>
       </c>
       <c r="C129">
-        <v>1392.21</v>
+        <v>1387.12</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -1835,7 +1949,7 @@
         <v>108</v>
       </c>
       <c r="C130">
-        <v>1110.0999999999999</v>
+        <v>1097.72</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -1843,7 +1957,7 @@
         <v>50</v>
       </c>
       <c r="C131">
-        <v>596.28200000000004</v>
+        <v>589.97</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -1851,7 +1965,7 @@
         <v>36</v>
       </c>
       <c r="C132">
-        <v>610.96</v>
+        <v>613.91700000000003</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -1859,7 +1973,7 @@
         <v>81</v>
       </c>
       <c r="C133">
-        <v>1575.45</v>
+        <v>1576.26</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -1867,7 +1981,7 @@
         <v>52</v>
       </c>
       <c r="C134">
-        <v>1455.9</v>
+        <v>1449.48</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -1875,7 +1989,7 @@
         <v>110</v>
       </c>
       <c r="C135">
-        <v>4288.29</v>
+        <v>4276.12</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -1883,7 +1997,7 @@
         <v>97</v>
       </c>
       <c r="C136">
-        <v>120.747</v>
+        <v>121.90600000000001</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -1891,7 +2005,7 @@
         <v>64</v>
       </c>
       <c r="C137">
-        <v>468.05799999999999</v>
+        <v>469.55700000000002</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -1899,7 +2013,7 @@
         <v>79</v>
       </c>
       <c r="C138">
-        <v>1075.9000000000001</v>
+        <v>1077.06</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -1907,7 +2021,7 @@
         <v>77</v>
       </c>
       <c r="C139">
-        <v>389.23899999999998</v>
+        <v>391.96</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -1915,7 +2029,7 @@
         <v>37</v>
       </c>
       <c r="C140">
-        <v>5293.01</v>
+        <v>5287.77</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -1923,7 +2037,7 @@
         <v>90</v>
       </c>
       <c r="C141">
-        <v>544.048</v>
+        <v>540.73400000000004</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -1931,7 +2045,7 @@
         <v>33</v>
       </c>
       <c r="C142">
-        <v>636.96199999999999</v>
+        <v>635.88199999999995</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -1939,7 +2053,7 @@
         <v>68</v>
       </c>
       <c r="C143">
-        <v>758.86</v>
+        <v>744.43600000000004</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -1947,7 +2061,7 @@
         <v>62</v>
       </c>
       <c r="C144">
-        <v>1532.64</v>
+        <v>1523.76</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -1955,7 +2069,7 @@
         <v>32</v>
       </c>
       <c r="C145">
-        <v>1954.04</v>
+        <v>1928.37</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -1963,7 +2077,7 @@
         <v>88</v>
       </c>
       <c r="C146">
-        <v>952.76400000000001</v>
+        <v>958.601</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -1971,7 +2085,7 @@
         <v>15</v>
       </c>
       <c r="C147">
-        <v>262.01400000000001</v>
+        <v>258.72199999999998</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -1979,7 +2093,7 @@
         <v>92</v>
       </c>
       <c r="C148">
-        <v>1366.29</v>
+        <v>1365.64</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -1987,7 +2101,7 @@
         <v>54</v>
       </c>
       <c r="C149">
-        <v>358.90899999999999</v>
+        <v>362.57900000000001</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -1995,7 +2109,7 @@
         <v>31</v>
       </c>
       <c r="C150">
-        <v>246.61600000000001</v>
+        <v>249.11600000000001</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2003,7 +2117,7 @@
         <v>67</v>
       </c>
       <c r="C151">
-        <v>4293.59</v>
+        <v>4274.9399999999996</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2011,7 +2125,7 @@
         <v>101</v>
       </c>
       <c r="C152">
-        <v>525.51300000000003</v>
+        <v>527.86800000000005</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2019,7 +2133,7 @@
         <v>63</v>
       </c>
       <c r="C153">
-        <v>856.76599999999996</v>
+        <v>862.91200000000003</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2027,7 +2141,7 @@
         <v>11</v>
       </c>
       <c r="C154">
-        <v>1327.41</v>
+        <v>1334.39</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2035,7 +2149,7 @@
         <v>109</v>
       </c>
       <c r="C155">
-        <v>649.84500000000003</v>
+        <v>643.24599999999998</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2043,7 +2157,7 @@
         <v>75</v>
       </c>
       <c r="C156">
-        <v>737.71900000000005</v>
+        <v>735.60699999999997</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -2051,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="C157">
-        <v>838.79899999999998</v>
+        <v>836.62</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2059,7 +2173,7 @@
         <v>5</v>
       </c>
       <c r="C158">
-        <v>323.52300000000002</v>
+        <v>318.52999999999997</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2067,7 +2181,7 @@
         <v>24</v>
       </c>
       <c r="C159">
-        <v>1650.19</v>
+        <v>1632.27</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2075,7 +2189,7 @@
         <v>28</v>
       </c>
       <c r="C160">
-        <v>457.23899999999998</v>
+        <v>458.22</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2083,7 +2197,7 @@
         <v>39</v>
       </c>
       <c r="C161">
-        <v>1660.65</v>
+        <v>1656.61</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2091,7 +2205,7 @@
         <v>55</v>
       </c>
       <c r="C162">
-        <v>476.16500000000002</v>
+        <v>467.45699999999999</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -2099,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="C163">
-        <v>1104.46</v>
+        <v>1101.55</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2107,7 +2221,7 @@
         <v>86</v>
       </c>
       <c r="C164">
-        <v>559.53200000000004</v>
+        <v>560.24</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -2115,7 +2229,7 @@
         <v>94</v>
       </c>
       <c r="C165">
-        <v>1277.25</v>
+        <v>1279.8399999999999</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2123,7 +2237,7 @@
         <v>74</v>
       </c>
       <c r="C166">
-        <v>1263.18</v>
+        <v>1267.06</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2131,7 +2245,7 @@
         <v>14</v>
       </c>
       <c r="C167">
-        <v>1111.78</v>
+        <v>1101.8800000000001</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -2139,7 +2253,7 @@
         <v>103</v>
       </c>
       <c r="C168">
-        <v>966.56799999999998</v>
+        <v>966.75900000000001</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -2147,7 +2261,7 @@
         <v>7</v>
       </c>
       <c r="C169">
-        <v>1457.12</v>
+        <v>1454.97</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -2155,7 +2269,7 @@
         <v>61</v>
       </c>
       <c r="C170">
-        <v>1094.74</v>
+        <v>1094.46</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -2163,7 +2277,7 @@
         <v>44</v>
       </c>
       <c r="C171">
-        <v>1662.9</v>
+        <v>1663.94</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -2171,7 +2285,7 @@
         <v>99</v>
       </c>
       <c r="C172">
-        <v>1333.42</v>
+        <v>1326.12</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -2179,7 +2293,7 @@
         <v>40</v>
       </c>
       <c r="C173">
-        <v>366.24400000000003</v>
+        <v>372.58600000000001</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -2187,7 +2301,7 @@
         <v>111</v>
       </c>
       <c r="C174">
-        <v>972.76599999999996</v>
+        <v>982.89300000000003</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -2195,7 +2309,7 @@
         <v>45</v>
       </c>
       <c r="C175">
-        <v>1693.2</v>
+        <v>1684.95</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -2203,7 +2317,7 @@
         <v>53</v>
       </c>
       <c r="C176">
-        <v>1201.01</v>
+        <v>1198.93</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -2211,7 +2325,7 @@
         <v>85</v>
       </c>
       <c r="C177">
-        <v>1256.19</v>
+        <v>1253.44</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -2219,7 +2333,7 @@
         <v>100</v>
       </c>
       <c r="C178">
-        <v>1396.46</v>
+        <v>1399.03</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -2227,7 +2341,7 @@
         <v>71</v>
       </c>
       <c r="C179">
-        <v>1306.4100000000001</v>
+        <v>1311.44</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -2235,7 +2349,7 @@
         <v>48</v>
       </c>
       <c r="C180">
-        <v>2994.43</v>
+        <v>2971.47</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -2243,7 +2357,7 @@
         <v>46</v>
       </c>
       <c r="C181">
-        <v>879.34699999999998</v>
+        <v>882.83399999999995</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -2251,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="C182">
-        <v>4476.47</v>
+        <v>4466.17</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -2259,7 +2373,7 @@
         <v>91</v>
       </c>
       <c r="C183">
-        <v>1016.99</v>
+        <v>1013.01</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -2267,7 +2381,7 @@
         <v>25</v>
       </c>
       <c r="C184">
-        <v>410.26</v>
+        <v>414.81700000000001</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -2275,7 +2389,7 @@
         <v>89</v>
       </c>
       <c r="C185">
-        <v>1770.76</v>
+        <v>1761.83</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -2283,7 +2397,7 @@
         <v>60</v>
       </c>
       <c r="C186">
-        <v>4640.38</v>
+        <v>4617.3</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -2291,7 +2405,7 @@
         <v>21</v>
       </c>
       <c r="C187">
-        <v>115.496</v>
+        <v>113.703</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -2299,7 +2413,7 @@
         <v>107</v>
       </c>
       <c r="C188">
-        <v>539.90099999999995</v>
+        <v>536.03099999999995</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -2307,7 +2421,7 @@
         <v>57</v>
       </c>
       <c r="C189">
-        <v>1119.3699999999999</v>
+        <v>1120.1099999999999</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -2315,7 +2429,7 @@
         <v>38</v>
       </c>
       <c r="C190">
-        <v>1582.78</v>
+        <v>1545.81</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -2323,7 +2437,7 @@
         <v>72</v>
       </c>
       <c r="C191">
-        <v>319.12</v>
+        <v>321.19200000000001</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -2331,7 +2445,7 @@
         <v>23</v>
       </c>
       <c r="C192">
-        <v>542.14400000000001</v>
+        <v>538.625</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -2339,7 +2453,7 @@
         <v>112</v>
       </c>
       <c r="C193">
-        <v>1503.24</v>
+        <v>1503.95</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -2347,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="C194">
-        <v>930.80799999999999</v>
+        <v>922.18700000000001</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -2355,7 +2469,7 @@
         <v>73</v>
       </c>
       <c r="C195">
-        <v>996.78399999999999</v>
+        <v>988.15200000000004</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -2363,7 +2477,7 @@
         <v>78</v>
       </c>
       <c r="C196">
-        <v>646.46299999999997</v>
+        <v>644.24</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -2371,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="C197">
-        <v>1191.42</v>
+        <v>1188.47</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -2379,7 +2493,7 @@
         <v>29</v>
       </c>
       <c r="C198">
-        <v>1621.7</v>
+        <v>1620.95</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -2387,7 +2501,7 @@
         <v>84</v>
       </c>
       <c r="C199">
-        <v>534.87300000000005</v>
+        <v>541.69200000000001</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -2395,7 +2509,7 @@
         <v>42</v>
       </c>
       <c r="C200">
-        <v>1317.45</v>
+        <v>1314.52</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -2403,7 +2517,7 @@
         <v>69</v>
       </c>
       <c r="C201">
-        <v>429.5</v>
+        <v>428.041</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -2411,7 +2525,7 @@
         <v>82</v>
       </c>
       <c r="C202">
-        <v>147.96100000000001</v>
+        <v>146.422</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -2419,7 +2533,7 @@
         <v>49</v>
       </c>
       <c r="C203">
-        <v>2457.06</v>
+        <v>2451.5300000000002</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -2427,7 +2541,7 @@
         <v>96</v>
       </c>
       <c r="C204">
-        <v>778.16</v>
+        <v>805.89</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -2435,7 +2549,7 @@
         <v>35</v>
       </c>
       <c r="C205">
-        <v>601.76700000000005</v>
+        <v>600.94299999999998</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -2443,7 +2557,7 @@
         <v>93</v>
       </c>
       <c r="C206">
-        <v>313.173</v>
+        <v>310.16500000000002</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -2451,7 +2565,7 @@
         <v>106</v>
       </c>
       <c r="C207">
-        <v>6183.63</v>
+        <v>6175.12</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -2459,7 +2573,7 @@
         <v>47</v>
       </c>
       <c r="C208">
-        <v>2231.91</v>
+        <v>2220.19</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -2467,7 +2581,7 @@
         <v>95</v>
       </c>
       <c r="C209">
-        <v>470.738</v>
+        <v>472.64499999999998</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -2475,7 +2589,7 @@
         <v>70</v>
       </c>
       <c r="C210">
-        <v>946.77200000000005</v>
+        <v>938.11400000000003</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -2483,7 +2597,7 @@
         <v>13</v>
       </c>
       <c r="C211">
-        <v>1460.04</v>
+        <v>1453.43</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -2491,7 +2605,7 @@
         <v>18</v>
       </c>
       <c r="C212">
-        <v>1586.12</v>
+        <v>1582.27</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -2499,7 +2613,7 @@
         <v>9</v>
       </c>
       <c r="C213">
-        <v>1096.32</v>
+        <v>1092.8699999999999</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -2507,7 +2621,7 @@
         <v>65</v>
       </c>
       <c r="C214">
-        <v>3409.34</v>
+        <v>3379.79</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -2515,7 +2629,7 @@
         <v>59</v>
       </c>
       <c r="C215">
-        <v>369.601</v>
+        <v>369.762</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -2523,7 +2637,7 @@
         <v>80</v>
       </c>
       <c r="C216">
-        <v>1168.98</v>
+        <v>1153.6199999999999</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -2531,7 +2645,7 @@
         <v>41</v>
       </c>
       <c r="C217">
-        <v>230.904</v>
+        <v>231.25200000000001</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -2539,7 +2653,7 @@
         <v>12</v>
       </c>
       <c r="C218">
-        <v>1283.83</v>
+        <v>1272.28</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -2547,7 +2661,7 @@
         <v>87</v>
       </c>
       <c r="C219">
-        <v>459.88099999999997</v>
+        <v>457.66199999999998</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -2555,7 +2669,7 @@
         <v>83</v>
       </c>
       <c r="C220">
-        <v>631.59100000000001</v>
+        <v>631.30700000000002</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -2563,7 +2677,7 @@
         <v>51</v>
       </c>
       <c r="C221">
-        <v>1835.54</v>
+        <v>1827.75</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -2571,7 +2685,7 @@
         <v>58</v>
       </c>
       <c r="C222">
-        <v>4827.2700000000004</v>
+        <v>4801.37</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -2579,7 +2693,7 @@
         <v>10</v>
       </c>
       <c r="C223">
-        <v>286.55200000000002</v>
+        <v>290.83300000000003</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -2587,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="C224">
-        <v>1143.97</v>
+        <v>1153.0999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -2595,7 +2709,7 @@
         <v>66</v>
       </c>
       <c r="C225">
-        <v>1374.63</v>
+        <v>1382.9</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -2603,7 +2717,7 @@
         <v>104</v>
       </c>
       <c r="C226">
-        <v>1291.23</v>
+        <v>1288.19</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -2611,7 +2725,7 @@
         <v>76</v>
       </c>
       <c r="C227">
-        <v>1195.43</v>
+        <v>1188.6099999999999</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -2619,7 +2733,7 @@
         <v>34</v>
       </c>
       <c r="C228">
-        <v>2325.5700000000002</v>
+        <v>2323.67</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -2627,7 +2741,7 @@
         <v>30</v>
       </c>
       <c r="C229">
-        <v>2394.5</v>
+        <v>2409.8000000000002</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -2635,7 +2749,7 @@
         <v>8</v>
       </c>
       <c r="C230">
-        <v>915.50099999999998</v>
+        <v>903.39099999999996</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -2643,7 +2757,7 @@
         <v>43</v>
       </c>
       <c r="C231">
-        <v>1344.35</v>
+        <v>1342.58</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -2651,7 +2765,7 @@
         <v>20</v>
       </c>
       <c r="C232">
-        <v>413.077</v>
+        <v>413.64499999999998</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -2659,7 +2773,7 @@
         <v>22</v>
       </c>
       <c r="C233">
-        <v>1259.48</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -2667,7 +2781,7 @@
         <v>56</v>
       </c>
       <c r="C234">
-        <v>1159.95</v>
+        <v>1167.27</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -2675,7 +2789,7 @@
         <v>27</v>
       </c>
       <c r="C235">
-        <v>3122.27</v>
+        <v>3129.76</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -2683,7 +2797,7 @@
         <v>105</v>
       </c>
       <c r="C236">
-        <v>958.55700000000002</v>
+        <v>958.83799999999997</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -2691,7 +2805,7 @@
         <v>98</v>
       </c>
       <c r="C237">
-        <v>1714.75</v>
+        <v>1719.89</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -2699,7 +2813,7 @@
         <v>102</v>
       </c>
       <c r="C238">
-        <v>4312.88</v>
+        <v>4320.51</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -2707,7 +2821,7 @@
         <v>26</v>
       </c>
       <c r="C239">
-        <v>164.24</v>
+        <v>164.19</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -2715,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="C240">
-        <v>945</v>
+        <v>948.24400000000003</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -2723,7 +2837,7 @@
         <v>16</v>
       </c>
       <c r="C241">
-        <v>163.40299999999999</v>
+        <v>163.26300000000001</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -2731,7 +2845,7 @@
         <v>113</v>
       </c>
       <c r="C242">
-        <v>1386.98</v>
+        <v>1388.72</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -2739,7 +2853,7 @@
         <v>108</v>
       </c>
       <c r="C243">
-        <v>1097.05</v>
+        <v>1099.48</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -2747,7 +2861,7 @@
         <v>50</v>
       </c>
       <c r="C244">
-        <v>586.63300000000004</v>
+        <v>594.47199999999998</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -2755,7 +2869,7 @@
         <v>36</v>
       </c>
       <c r="C245">
-        <v>616.49800000000005</v>
+        <v>611.49599999999998</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -2763,7 +2877,7 @@
         <v>81</v>
       </c>
       <c r="C246">
-        <v>1574.31</v>
+        <v>1584.08</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -2771,7 +2885,7 @@
         <v>52</v>
       </c>
       <c r="C247">
-        <v>1453.29</v>
+        <v>1441.6</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -2779,7 +2893,7 @@
         <v>110</v>
       </c>
       <c r="C248">
-        <v>4278.66</v>
+        <v>4289.72</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -2787,7 +2901,7 @@
         <v>97</v>
       </c>
       <c r="C249">
-        <v>119.932</v>
+        <v>119.923</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -2795,7 +2909,7 @@
         <v>64</v>
       </c>
       <c r="C250">
-        <v>471.32900000000001</v>
+        <v>468.48500000000001</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -2803,7 +2917,7 @@
         <v>79</v>
       </c>
       <c r="C251">
-        <v>1068.1400000000001</v>
+        <v>1064.7</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -2811,7 +2925,7 @@
         <v>77</v>
       </c>
       <c r="C252">
-        <v>388.07600000000002</v>
+        <v>388.18299999999999</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -2819,7 +2933,7 @@
         <v>37</v>
       </c>
       <c r="C253">
-        <v>5278.02</v>
+        <v>5289.84</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -2827,7 +2941,7 @@
         <v>90</v>
       </c>
       <c r="C254">
-        <v>541.41700000000003</v>
+        <v>543.33799999999997</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -2835,7 +2949,7 @@
         <v>33</v>
       </c>
       <c r="C255">
-        <v>630.50099999999998</v>
+        <v>631.774</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -2843,7 +2957,7 @@
         <v>68</v>
       </c>
       <c r="C256">
-        <v>743.76</v>
+        <v>742.62099999999998</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -2851,7 +2965,7 @@
         <v>62</v>
       </c>
       <c r="C257">
-        <v>1545.72</v>
+        <v>1527.94</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -2859,7 +2973,7 @@
         <v>32</v>
       </c>
       <c r="C258">
-        <v>1924.44</v>
+        <v>1943.95</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -2867,7 +2981,7 @@
         <v>88</v>
       </c>
       <c r="C259">
-        <v>959.327</v>
+        <v>949.73099999999999</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -2875,7 +2989,7 @@
         <v>15</v>
       </c>
       <c r="C260">
-        <v>258.22300000000001</v>
+        <v>257.20999999999998</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -2883,7 +2997,7 @@
         <v>92</v>
       </c>
       <c r="C261">
-        <v>1365.3</v>
+        <v>1369.06</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -2891,7 +3005,7 @@
         <v>54</v>
       </c>
       <c r="C262">
-        <v>362.00599999999997</v>
+        <v>362.26499999999999</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -2899,7 +3013,7 @@
         <v>31</v>
       </c>
       <c r="C263">
-        <v>245.99</v>
+        <v>247.14400000000001</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -2907,7 +3021,7 @@
         <v>67</v>
       </c>
       <c r="C264">
-        <v>4268.5200000000004</v>
+        <v>4263.67</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -2915,7 +3029,7 @@
         <v>101</v>
       </c>
       <c r="C265">
-        <v>522.59299999999996</v>
+        <v>527.92899999999997</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -2923,7 +3037,7 @@
         <v>63</v>
       </c>
       <c r="C266">
-        <v>862.37400000000002</v>
+        <v>857.29399999999998</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -2931,7 +3045,7 @@
         <v>11</v>
       </c>
       <c r="C267">
-        <v>1324.87</v>
+        <v>1326.62</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -2939,7 +3053,7 @@
         <v>109</v>
       </c>
       <c r="C268">
-        <v>641.529</v>
+        <v>642.91999999999996</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -2947,7 +3061,7 @@
         <v>75</v>
       </c>
       <c r="C269">
-        <v>737.41</v>
+        <v>734.90800000000002</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -2955,7 +3069,7 @@
         <v>6</v>
       </c>
       <c r="C270">
-        <v>828.38099999999997</v>
+        <v>840.02099999999996</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -2963,7 +3077,7 @@
         <v>5</v>
       </c>
       <c r="C271">
-        <v>320.73599999999999</v>
+        <v>319.08</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -2971,7 +3085,7 @@
         <v>24</v>
       </c>
       <c r="C272">
-        <v>1637.43</v>
+        <v>1631.49</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -2979,7 +3093,7 @@
         <v>28</v>
       </c>
       <c r="C273">
-        <v>453.70499999999998</v>
+        <v>456.35500000000002</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -2987,7 +3101,7 @@
         <v>39</v>
       </c>
       <c r="C274">
-        <v>1651.45</v>
+        <v>1659.82</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -2995,7 +3109,7 @@
         <v>55</v>
       </c>
       <c r="C275">
-        <v>470.41800000000001</v>
+        <v>478.28199999999998</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -3003,7 +3117,7 @@
         <v>19</v>
       </c>
       <c r="C276">
-        <v>1104.6300000000001</v>
+        <v>1104.99</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -3011,7 +3125,7 @@
         <v>86</v>
       </c>
       <c r="C277">
-        <v>556.30899999999997</v>
+        <v>562.096</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -3019,7 +3133,7 @@
         <v>94</v>
       </c>
       <c r="C278">
-        <v>1276.05</v>
+        <v>1277.45</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -3027,7 +3141,7 @@
         <v>74</v>
       </c>
       <c r="C279">
-        <v>1262.69</v>
+        <v>1277.8800000000001</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -3035,7 +3149,7 @@
         <v>14</v>
       </c>
       <c r="C280">
-        <v>1103.08</v>
+        <v>1106.31</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -3043,7 +3157,7 @@
         <v>103</v>
       </c>
       <c r="C281">
-        <v>974.68299999999999</v>
+        <v>967.49199999999996</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -3051,7 +3165,7 @@
         <v>7</v>
       </c>
       <c r="C282">
-        <v>1459.32</v>
+        <v>1458.14</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -3059,7 +3173,7 @@
         <v>61</v>
       </c>
       <c r="C283">
-        <v>1094.32</v>
+        <v>1105.01</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -3067,7 +3181,7 @@
         <v>44</v>
       </c>
       <c r="C284">
-        <v>1663.22</v>
+        <v>1665.53</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -3075,7 +3189,7 @@
         <v>99</v>
       </c>
       <c r="C285">
-        <v>1322.99</v>
+        <v>1332.45</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -3083,7 +3197,7 @@
         <v>40</v>
       </c>
       <c r="C286">
-        <v>370.29700000000003</v>
+        <v>368.11399999999998</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -3091,7 +3205,7 @@
         <v>111</v>
       </c>
       <c r="C287">
-        <v>979.36300000000006</v>
+        <v>977.18600000000004</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -3099,7 +3213,7 @@
         <v>45</v>
       </c>
       <c r="C288">
-        <v>1677.94</v>
+        <v>1694.4</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -3107,7 +3221,7 @@
         <v>53</v>
       </c>
       <c r="C289">
-        <v>1199.3699999999999</v>
+        <v>1200.44</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -3115,7 +3229,7 @@
         <v>85</v>
       </c>
       <c r="C290">
-        <v>1246.57</v>
+        <v>1244.8699999999999</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -3123,7 +3237,7 @@
         <v>100</v>
       </c>
       <c r="C291">
-        <v>1393.97</v>
+        <v>1399.73</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -3131,7 +3245,7 @@
         <v>71</v>
       </c>
       <c r="C292">
-        <v>1307.8800000000001</v>
+        <v>1308.82</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -3139,7 +3253,7 @@
         <v>48</v>
       </c>
       <c r="C293">
-        <v>2969.15</v>
+        <v>2986.71</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -3147,7 +3261,7 @@
         <v>46</v>
       </c>
       <c r="C294">
-        <v>885.58399999999995</v>
+        <v>895.66099999999994</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -3155,7 +3269,7 @@
         <v>2</v>
       </c>
       <c r="C295">
-        <v>4453.8500000000004</v>
+        <v>4464.5600000000004</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -3163,7 +3277,7 @@
         <v>91</v>
       </c>
       <c r="C296">
-        <v>1016.64</v>
+        <v>1021.69</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -3171,7 +3285,7 @@
         <v>25</v>
       </c>
       <c r="C297">
-        <v>412.67599999999999</v>
+        <v>412.822</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -3179,7 +3293,7 @@
         <v>89</v>
       </c>
       <c r="C298">
-        <v>1772.22</v>
+        <v>1761.67</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -3187,7 +3301,7 @@
         <v>60</v>
       </c>
       <c r="C299">
-        <v>4573.79</v>
+        <v>4596.17</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -3195,7 +3309,7 @@
         <v>21</v>
       </c>
       <c r="C300">
-        <v>114.88800000000001</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -3203,7 +3317,7 @@
         <v>107</v>
       </c>
       <c r="C301">
-        <v>535.93899999999996</v>
+        <v>542.16800000000001</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -3211,7 +3325,7 @@
         <v>57</v>
       </c>
       <c r="C302">
-        <v>1119.03</v>
+        <v>1118.8800000000001</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -3219,7 +3333,7 @@
         <v>38</v>
       </c>
       <c r="C303">
-        <v>1560.23</v>
+        <v>1560.83</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -3227,7 +3341,7 @@
         <v>72</v>
       </c>
       <c r="C304">
-        <v>322.62900000000002</v>
+        <v>321.76400000000001</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -3235,7 +3349,7 @@
         <v>23</v>
       </c>
       <c r="C305">
-        <v>553.28700000000003</v>
+        <v>540.89300000000003</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -3243,7 +3357,7 @@
         <v>112</v>
       </c>
       <c r="C306">
-        <v>1510.6</v>
+        <v>1508.76</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -3251,7 +3365,7 @@
         <v>3</v>
       </c>
       <c r="C307">
-        <v>927.91899999999998</v>
+        <v>920.02200000000005</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -3259,7 +3373,7 @@
         <v>73</v>
       </c>
       <c r="C308">
-        <v>990.00199999999995</v>
+        <v>986.13900000000001</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -3267,7 +3381,7 @@
         <v>78</v>
       </c>
       <c r="C309">
-        <v>647.46299999999997</v>
+        <v>651.85799999999995</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -3275,7 +3389,7 @@
         <v>17</v>
       </c>
       <c r="C310">
-        <v>1192.44</v>
+        <v>1190.51</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -3283,7 +3397,7 @@
         <v>29</v>
       </c>
       <c r="C311">
-        <v>1621.67</v>
+        <v>1622.04</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -3291,7 +3405,7 @@
         <v>84</v>
       </c>
       <c r="C312">
-        <v>542.04700000000003</v>
+        <v>535.04499999999996</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -3299,7 +3413,7 @@
         <v>42</v>
       </c>
       <c r="C313">
-        <v>1317.72</v>
+        <v>1314.27</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -3307,7 +3421,7 @@
         <v>69</v>
       </c>
       <c r="C314">
-        <v>429.77100000000002</v>
+        <v>429.36500000000001</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -3315,7 +3429,7 @@
         <v>82</v>
       </c>
       <c r="C315">
-        <v>146.75200000000001</v>
+        <v>150.05500000000001</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -3323,7 +3437,7 @@
         <v>49</v>
       </c>
       <c r="C316">
-        <v>2449.8000000000002</v>
+        <v>2445.52</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -3331,7 +3445,7 @@
         <v>96</v>
       </c>
       <c r="C317">
-        <v>784.32500000000005</v>
+        <v>771.81200000000001</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -3339,7 +3453,7 @@
         <v>35</v>
       </c>
       <c r="C318">
-        <v>593.40599999999995</v>
+        <v>596.62099999999998</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -3347,7 +3461,7 @@
         <v>93</v>
       </c>
       <c r="C319">
-        <v>313.00099999999998</v>
+        <v>313.096</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -3355,7 +3469,7 @@
         <v>106</v>
       </c>
       <c r="C320">
-        <v>6168.73</v>
+        <v>6176.52</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -3363,7 +3477,7 @@
         <v>47</v>
       </c>
       <c r="C321">
-        <v>2221</v>
+        <v>2220.83</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -3371,7 +3485,7 @@
         <v>95</v>
       </c>
       <c r="C322">
-        <v>466.762</v>
+        <v>468.25599999999997</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -3379,7 +3493,7 @@
         <v>70</v>
       </c>
       <c r="C323">
-        <v>937.54899999999998</v>
+        <v>935.89</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -3387,7 +3501,7 @@
         <v>13</v>
       </c>
       <c r="C324">
-        <v>1450.01</v>
+        <v>1455.98</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -3395,7 +3509,7 @@
         <v>18</v>
       </c>
       <c r="C325">
-        <v>1575.09</v>
+        <v>1579.91</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -3403,7 +3517,7 @@
         <v>9</v>
       </c>
       <c r="C326">
-        <v>1096.67</v>
+        <v>1093.58</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -3411,7 +3525,7 @@
         <v>65</v>
       </c>
       <c r="C327">
-        <v>3371.97</v>
+        <v>3374.76</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -3419,7 +3533,7 @@
         <v>59</v>
       </c>
       <c r="C328">
-        <v>368.85899999999998</v>
+        <v>367.53500000000003</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -3427,7 +3541,7 @@
         <v>80</v>
       </c>
       <c r="C329">
-        <v>1161.52</v>
+        <v>1156.25</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -3435,7 +3549,7 @@
         <v>41</v>
       </c>
       <c r="C330">
-        <v>228.90600000000001</v>
+        <v>227.78</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -3443,7 +3557,7 @@
         <v>12</v>
       </c>
       <c r="C331">
-        <v>1269.98</v>
+        <v>1259.31</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -3451,7 +3565,7 @@
         <v>87</v>
       </c>
       <c r="C332">
-        <v>456.52600000000001</v>
+        <v>459.00200000000001</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -3459,7 +3573,7 @@
         <v>83</v>
       </c>
       <c r="C333">
-        <v>626.78099999999995</v>
+        <v>638.755</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -3467,7 +3581,7 @@
         <v>51</v>
       </c>
       <c r="C334">
-        <v>1823.74</v>
+        <v>1837.41</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -3475,7 +3589,7 @@
         <v>58</v>
       </c>
       <c r="C335">
-        <v>4809.0600000000004</v>
+        <v>4845.05</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -3483,7 +3597,7 @@
         <v>10</v>
       </c>
       <c r="C336">
-        <v>287.565</v>
+        <v>286.52300000000002</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -3491,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="C337">
-        <v>1137.8599999999999</v>
+        <v>1146.24</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -3499,7 +3613,7 @@
         <v>66</v>
       </c>
       <c r="C338">
-        <v>1376.19</v>
+        <v>1402.45</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -3507,7 +3621,7 @@
         <v>104</v>
       </c>
       <c r="C339">
-        <v>1278.23</v>
+        <v>1277.53</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -3515,12 +3629,6340 @@
         <v>76</v>
       </c>
       <c r="C340">
+        <v>1187.28</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>34</v>
+      </c>
+      <c r="C341">
+        <v>2318.12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>30</v>
+      </c>
+      <c r="C342">
+        <v>2415.46</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>8</v>
+      </c>
+      <c r="C343">
+        <v>902.34100000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>43</v>
+      </c>
+      <c r="C344">
+        <v>1345.94</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>20</v>
+      </c>
+      <c r="C345">
+        <v>414.78300000000002</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>22</v>
+      </c>
+      <c r="C346">
+        <v>1261.3699999999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>56</v>
+      </c>
+      <c r="C347">
+        <v>1168.67</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>27</v>
+      </c>
+      <c r="C348">
+        <v>3126.36</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>105</v>
+      </c>
+      <c r="C349">
+        <v>953.42</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>98</v>
+      </c>
+      <c r="C350">
+        <v>1721.45</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>102</v>
+      </c>
+      <c r="C351">
+        <v>4321.4799999999996</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>26</v>
+      </c>
+      <c r="C352">
+        <v>164.12799999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>948.41600000000005</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>16</v>
+      </c>
+      <c r="C354">
+        <v>162.571</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>113</v>
+      </c>
+      <c r="C355">
+        <v>1395.53</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>108</v>
+      </c>
+      <c r="C356">
+        <v>1100.0899999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>50</v>
+      </c>
+      <c r="C357">
+        <v>599.85400000000004</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>36</v>
+      </c>
+      <c r="C358">
+        <v>611.43600000000004</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>81</v>
+      </c>
+      <c r="C359">
+        <v>1575.89</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>52</v>
+      </c>
+      <c r="C360">
+        <v>1439.41</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>110</v>
+      </c>
+      <c r="C361">
+        <v>4278.49</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>97</v>
+      </c>
+      <c r="C362">
+        <v>121.238</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>64</v>
+      </c>
+      <c r="C363">
+        <v>467.42099999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>79</v>
+      </c>
+      <c r="C364">
+        <v>1073.47</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>77</v>
+      </c>
+      <c r="C365">
+        <v>388.70800000000003</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>37</v>
+      </c>
+      <c r="C366">
+        <v>5275.4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>90</v>
+      </c>
+      <c r="C367">
+        <v>540.95399999999995</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>33</v>
+      </c>
+      <c r="C368">
+        <v>632.77800000000002</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>68</v>
+      </c>
+      <c r="C369">
+        <v>742.35400000000004</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>62</v>
+      </c>
+      <c r="C370">
+        <v>1525.02</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>32</v>
+      </c>
+      <c r="C371">
+        <v>1918.39</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>88</v>
+      </c>
+      <c r="C372">
+        <v>952.07399999999996</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>15</v>
+      </c>
+      <c r="C373">
+        <v>256.37799999999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>92</v>
+      </c>
+      <c r="C374">
+        <v>1361.26</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>54</v>
+      </c>
+      <c r="C375">
+        <v>365.24900000000002</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>31</v>
+      </c>
+      <c r="C376">
+        <v>246.26300000000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>67</v>
+      </c>
+      <c r="C377">
+        <v>4253.5200000000004</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>101</v>
+      </c>
+      <c r="C378">
+        <v>522.14800000000002</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>63</v>
+      </c>
+      <c r="C379">
+        <v>867.05499999999995</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>11</v>
+      </c>
+      <c r="C380">
+        <v>1326.12</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>109</v>
+      </c>
+      <c r="C381">
+        <v>647.673</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>75</v>
+      </c>
+      <c r="C382">
+        <v>734.77099999999996</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>6</v>
+      </c>
+      <c r="C383">
+        <v>834.37400000000002</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384">
+        <v>318.14</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>24</v>
+      </c>
+      <c r="C385">
+        <v>1642.57</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>28</v>
+      </c>
+      <c r="C386">
+        <v>453.97500000000002</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>39</v>
+      </c>
+      <c r="C387">
+        <v>1668.73</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>55</v>
+      </c>
+      <c r="C388">
+        <v>476.7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>19</v>
+      </c>
+      <c r="C389">
+        <v>1102.6199999999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>86</v>
+      </c>
+      <c r="C390">
+        <v>575.38499999999999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>94</v>
+      </c>
+      <c r="C391">
+        <v>1275.6600000000001</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>74</v>
+      </c>
+      <c r="C392">
+        <v>1264.67</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>14</v>
+      </c>
+      <c r="C393">
+        <v>1102.93</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>103</v>
+      </c>
+      <c r="C394">
+        <v>970.18</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>7</v>
+      </c>
+      <c r="C395">
+        <v>1455.26</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>61</v>
+      </c>
+      <c r="C396">
+        <v>1102.1500000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>44</v>
+      </c>
+      <c r="C397">
+        <v>1666.03</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>99</v>
+      </c>
+      <c r="C398">
+        <v>1327.25</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>40</v>
+      </c>
+      <c r="C399">
+        <v>375.22300000000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>111</v>
+      </c>
+      <c r="C400">
+        <v>975.327</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>45</v>
+      </c>
+      <c r="C401">
+        <v>1672.96</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>53</v>
+      </c>
+      <c r="C402">
+        <v>1191.56</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>85</v>
+      </c>
+      <c r="C403">
+        <v>1254.6099999999999</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>100</v>
+      </c>
+      <c r="C404">
+        <v>1400.88</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>71</v>
+      </c>
+      <c r="C405">
+        <v>1311.31</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>48</v>
+      </c>
+      <c r="C406">
+        <v>2967.64</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>46</v>
+      </c>
+      <c r="C407">
+        <v>874.14300000000003</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>2</v>
+      </c>
+      <c r="C408">
+        <v>4454.3100000000004</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>91</v>
+      </c>
+      <c r="C409">
+        <v>1016.43</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>25</v>
+      </c>
+      <c r="C410">
+        <v>416.13</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>89</v>
+      </c>
+      <c r="C411">
+        <v>1761.79</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>60</v>
+      </c>
+      <c r="C412">
+        <v>4612.71</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>21</v>
+      </c>
+      <c r="C413">
+        <v>114.681</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>107</v>
+      </c>
+      <c r="C414">
+        <v>540.32600000000002</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>57</v>
+      </c>
+      <c r="C415">
+        <v>1126.08</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>38</v>
+      </c>
+      <c r="C416">
+        <v>1563.71</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>72</v>
+      </c>
+      <c r="C417">
+        <v>321.94900000000001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>23</v>
+      </c>
+      <c r="C418">
+        <v>539.61400000000003</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>112</v>
+      </c>
+      <c r="C419">
+        <v>1505.84</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>3</v>
+      </c>
+      <c r="C420">
+        <v>912.00599999999997</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>73</v>
+      </c>
+      <c r="C421">
+        <v>993.40800000000002</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>78</v>
+      </c>
+      <c r="C422">
+        <v>647.18100000000004</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>17</v>
+      </c>
+      <c r="C423">
+        <v>1206.08</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>29</v>
+      </c>
+      <c r="C424">
+        <v>1623.18</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>84</v>
+      </c>
+      <c r="C425">
+        <v>535.43299999999999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>42</v>
+      </c>
+      <c r="C426">
+        <v>1312.61</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>69</v>
+      </c>
+      <c r="C427">
+        <v>428.88</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>82</v>
+      </c>
+      <c r="C428">
+        <v>146.97399999999999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>49</v>
+      </c>
+      <c r="C429">
+        <v>2456.12</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>96</v>
+      </c>
+      <c r="C430">
+        <v>782.32600000000002</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>35</v>
+      </c>
+      <c r="C431">
+        <v>595.85400000000004</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>93</v>
+      </c>
+      <c r="C432">
+        <v>309.49400000000003</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>106</v>
+      </c>
+      <c r="C433">
+        <v>6150.02</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>47</v>
+      </c>
+      <c r="C434">
+        <v>2233.1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>95</v>
+      </c>
+      <c r="C435">
+        <v>468.82900000000001</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>70</v>
+      </c>
+      <c r="C436">
+        <v>938.35199999999998</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>13</v>
+      </c>
+      <c r="C437">
+        <v>1453.98</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>18</v>
+      </c>
+      <c r="C438">
+        <v>1579.51</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>9</v>
+      </c>
+      <c r="C439">
+        <v>1101.22</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>65</v>
+      </c>
+      <c r="C440">
+        <v>3368.64</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>59</v>
+      </c>
+      <c r="C441">
+        <v>369.08699999999999</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>80</v>
+      </c>
+      <c r="C442">
+        <v>1157.8800000000001</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>41</v>
+      </c>
+      <c r="C443">
+        <v>228.501</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>12</v>
+      </c>
+      <c r="C444">
+        <v>1268.69</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>87</v>
+      </c>
+      <c r="C445">
+        <v>458.154</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>83</v>
+      </c>
+      <c r="C446">
+        <v>629.31200000000001</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>51</v>
+      </c>
+      <c r="C447">
+        <v>1842.73</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>58</v>
+      </c>
+      <c r="C448">
+        <v>4843.6099999999997</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>10</v>
+      </c>
+      <c r="C449">
+        <v>290.32600000000002</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>4</v>
+      </c>
+      <c r="C450">
+        <v>1127.96</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>66</v>
+      </c>
+      <c r="C451">
+        <v>1385.24</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>104</v>
+      </c>
+      <c r="C452">
+        <v>1287.68</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>76</v>
+      </c>
+      <c r="C453">
+        <v>1188.3399999999999</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>34</v>
+      </c>
+      <c r="C454">
+        <v>2334.06</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>30</v>
+      </c>
+      <c r="C455">
+        <v>2407.0500000000002</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>8</v>
+      </c>
+      <c r="C456">
+        <v>910.78399999999999</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>43</v>
+      </c>
+      <c r="C457">
+        <v>1350.8</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>20</v>
+      </c>
+      <c r="C458">
+        <v>420.22199999999998</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>22</v>
+      </c>
+      <c r="C459">
+        <v>1260.95</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>56</v>
+      </c>
+      <c r="C460">
+        <v>1161.6600000000001</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>27</v>
+      </c>
+      <c r="C461">
+        <v>3136.69</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>105</v>
+      </c>
+      <c r="C462">
+        <v>956.90800000000002</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>98</v>
+      </c>
+      <c r="C463">
+        <v>1722.8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>102</v>
+      </c>
+      <c r="C464">
+        <v>4354.7700000000004</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>26</v>
+      </c>
+      <c r="C465">
+        <v>162.39099999999999</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>952.15899999999999</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>16</v>
+      </c>
+      <c r="C467">
+        <v>164.20599999999999</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>113</v>
+      </c>
+      <c r="C468">
+        <v>1397.63</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>108</v>
+      </c>
+      <c r="C469">
+        <v>1105.71</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>50</v>
+      </c>
+      <c r="C470">
+        <v>615.654</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>36</v>
+      </c>
+      <c r="C471">
+        <v>618.03</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>81</v>
+      </c>
+      <c r="C472">
+        <v>1574.19</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>52</v>
+      </c>
+      <c r="C473">
+        <v>1452.23</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>110</v>
+      </c>
+      <c r="C474">
+        <v>4298.4399999999996</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>97</v>
+      </c>
+      <c r="C475">
+        <v>121.187</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>64</v>
+      </c>
+      <c r="C476">
+        <v>468.63099999999997</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>79</v>
+      </c>
+      <c r="C477">
+        <v>1070.49</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>77</v>
+      </c>
+      <c r="C478">
+        <v>391.27100000000002</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>37</v>
+      </c>
+      <c r="C479">
+        <v>5289.65</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>90</v>
+      </c>
+      <c r="C480">
+        <v>541.70799999999997</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>33</v>
+      </c>
+      <c r="C481">
+        <v>633.04300000000001</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>68</v>
+      </c>
+      <c r="C482">
+        <v>744.18</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>62</v>
+      </c>
+      <c r="C483">
+        <v>1529.55</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>32</v>
+      </c>
+      <c r="C484">
+        <v>1946.27</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>88</v>
+      </c>
+      <c r="C485">
+        <v>955.41899999999998</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>15</v>
+      </c>
+      <c r="C486">
+        <v>259.95699999999999</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>92</v>
+      </c>
+      <c r="C487">
+        <v>1361.3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>54</v>
+      </c>
+      <c r="C488">
+        <v>363.11500000000001</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>31</v>
+      </c>
+      <c r="C489">
+        <v>244.673</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>67</v>
+      </c>
+      <c r="C490">
+        <v>4280.41</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>101</v>
+      </c>
+      <c r="C491">
+        <v>523.32100000000003</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>63</v>
+      </c>
+      <c r="C492">
+        <v>862.97900000000004</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>11</v>
+      </c>
+      <c r="C493">
+        <v>1327.84</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>109</v>
+      </c>
+      <c r="C494">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>75</v>
+      </c>
+      <c r="C495">
+        <v>738.05499999999995</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>6</v>
+      </c>
+      <c r="C496">
+        <v>837.37300000000005</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>5</v>
+      </c>
+      <c r="C497">
+        <v>322.25700000000001</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>24</v>
+      </c>
+      <c r="C498">
+        <v>1637.96</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>28</v>
+      </c>
+      <c r="C499">
+        <v>455.95499999999998</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>39</v>
+      </c>
+      <c r="C500">
+        <v>1661.99</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>55</v>
+      </c>
+      <c r="C501">
+        <v>475.28399999999999</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>19</v>
+      </c>
+      <c r="C502">
+        <v>1102.79</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>86</v>
+      </c>
+      <c r="C503">
+        <v>580.32500000000005</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>94</v>
+      </c>
+      <c r="C504">
+        <v>1281.55</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>74</v>
+      </c>
+      <c r="C505">
+        <v>1267.26</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>14</v>
+      </c>
+      <c r="C506">
+        <v>1111.69</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>103</v>
+      </c>
+      <c r="C507">
+        <v>970.26</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>7</v>
+      </c>
+      <c r="C508">
+        <v>1460.64</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>61</v>
+      </c>
+      <c r="C509">
+        <v>1091.27</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>44</v>
+      </c>
+      <c r="C510">
+        <v>1666.19</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>99</v>
+      </c>
+      <c r="C511">
+        <v>1330.57</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>40</v>
+      </c>
+      <c r="C512">
+        <v>366.96600000000001</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>111</v>
+      </c>
+      <c r="C513">
+        <v>970.59900000000005</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>45</v>
+      </c>
+      <c r="C514">
+        <v>1676.46</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>53</v>
+      </c>
+      <c r="C515">
+        <v>1198.95</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>85</v>
+      </c>
+      <c r="C516">
+        <v>1241.83</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>100</v>
+      </c>
+      <c r="C517">
+        <v>1398.11</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>71</v>
+      </c>
+      <c r="C518">
+        <v>1315.89</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>48</v>
+      </c>
+      <c r="C519">
+        <v>2992.73</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>46</v>
+      </c>
+      <c r="C520">
+        <v>878.18100000000004</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>2</v>
+      </c>
+      <c r="C521">
+        <v>4484.09</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>91</v>
+      </c>
+      <c r="C522">
+        <v>1018.21</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>25</v>
+      </c>
+      <c r="C523">
+        <v>415.815</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>89</v>
+      </c>
+      <c r="C524">
+        <v>1774.62</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>60</v>
+      </c>
+      <c r="C525">
+        <v>4591.05</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>21</v>
+      </c>
+      <c r="C526">
+        <v>117.21599999999999</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>107</v>
+      </c>
+      <c r="C527">
+        <v>551.24599999999998</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>57</v>
+      </c>
+      <c r="C528">
+        <v>1119.18</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>38</v>
+      </c>
+      <c r="C529">
+        <v>1566.52</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>72</v>
+      </c>
+      <c r="C530">
+        <v>321.87799999999999</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>23</v>
+      </c>
+      <c r="C531">
+        <v>543.43399999999997</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>112</v>
+      </c>
+      <c r="C532">
+        <v>1505.52</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>3</v>
+      </c>
+      <c r="C533">
+        <v>924.19</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>73</v>
+      </c>
+      <c r="C534">
+        <v>993.346</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>78</v>
+      </c>
+      <c r="C535">
+        <v>660.63099999999997</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>17</v>
+      </c>
+      <c r="C536">
+        <v>1191.1600000000001</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>29</v>
+      </c>
+      <c r="C537">
+        <v>1610.39</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>84</v>
+      </c>
+      <c r="C538">
+        <v>535.923</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>42</v>
+      </c>
+      <c r="C539">
+        <v>1313.16</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>69</v>
+      </c>
+      <c r="C540">
+        <v>429.83800000000002</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>82</v>
+      </c>
+      <c r="C541">
+        <v>148.59399999999999</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>49</v>
+      </c>
+      <c r="C542">
+        <v>2456.1799999999998</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>96</v>
+      </c>
+      <c r="C543">
+        <v>778.01</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>35</v>
+      </c>
+      <c r="C544">
+        <v>597.74800000000005</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>93</v>
+      </c>
+      <c r="C545">
+        <v>313.30900000000003</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>106</v>
+      </c>
+      <c r="C546">
+        <v>6160.14</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>47</v>
+      </c>
+      <c r="C547">
+        <v>2225.61</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>95</v>
+      </c>
+      <c r="C548">
+        <v>473.71</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>70</v>
+      </c>
+      <c r="C549">
+        <v>941.46199999999999</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>13</v>
+      </c>
+      <c r="C550">
+        <v>1458.38</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>18</v>
+      </c>
+      <c r="C551">
+        <v>1581.92</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>9</v>
+      </c>
+      <c r="C552">
+        <v>1096.93</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>65</v>
+      </c>
+      <c r="C553">
+        <v>3388.41</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>59</v>
+      </c>
+      <c r="C554">
+        <v>368.63600000000002</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>80</v>
+      </c>
+      <c r="C555">
+        <v>1158.77</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>41</v>
+      </c>
+      <c r="C556">
+        <v>231.45400000000001</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>12</v>
+      </c>
+      <c r="C557">
+        <v>1273.24</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>87</v>
+      </c>
+      <c r="C558">
+        <v>459.38200000000001</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>83</v>
+      </c>
+      <c r="C559">
+        <v>646.36199999999997</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>51</v>
+      </c>
+      <c r="C560">
+        <v>1830.26</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>58</v>
+      </c>
+      <c r="C561">
+        <v>4853.54</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>10</v>
+      </c>
+      <c r="C562">
+        <v>291.55500000000001</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>4</v>
+      </c>
+      <c r="C563">
+        <v>1142.8399999999999</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>66</v>
+      </c>
+      <c r="C564">
+        <v>1379.63</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>104</v>
+      </c>
+      <c r="C565">
+        <v>1284.9000000000001</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>76</v>
+      </c>
+      <c r="C566">
+        <v>1185.95</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>34</v>
+      </c>
+      <c r="C567">
+        <v>2329.81</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>30</v>
+      </c>
+      <c r="C568">
+        <v>2408.5500000000002</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>8</v>
+      </c>
+      <c r="C569">
+        <v>917.19100000000003</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>43</v>
+      </c>
+      <c r="C570">
+        <v>1345.22</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>20</v>
+      </c>
+      <c r="C571">
+        <v>414.33</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>22</v>
+      </c>
+      <c r="C572">
+        <v>1257.6600000000001</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>56</v>
+      </c>
+      <c r="C573">
+        <v>1164.1300000000001</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>27</v>
+      </c>
+      <c r="C574">
+        <v>3131.16</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>105</v>
+      </c>
+      <c r="C575">
+        <v>960.87400000000002</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>98</v>
+      </c>
+      <c r="C576">
+        <v>1721.35</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>102</v>
+      </c>
+      <c r="C577">
+        <v>4338.9799999999996</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>26</v>
+      </c>
+      <c r="C578">
+        <v>164.381</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>1</v>
+      </c>
+      <c r="C579">
+        <v>948.476</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>16</v>
+      </c>
+      <c r="C580">
+        <v>165.815</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>113</v>
+      </c>
+      <c r="C581">
+        <v>1396.46</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>108</v>
+      </c>
+      <c r="C582">
+        <v>1097.53</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>50</v>
+      </c>
+      <c r="C583">
+        <v>597.62400000000002</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>36</v>
+      </c>
+      <c r="C584">
+        <v>614.83900000000006</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>81</v>
+      </c>
+      <c r="C585">
+        <v>1573.58</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>52</v>
+      </c>
+      <c r="C586">
+        <v>1449.37</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>110</v>
+      </c>
+      <c r="C587">
+        <v>4290.8500000000004</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>97</v>
+      </c>
+      <c r="C588">
+        <v>120.441</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>64</v>
+      </c>
+      <c r="C589">
+        <v>469.27300000000002</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>79</v>
+      </c>
+      <c r="C590">
+        <v>1066.6199999999999</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>77</v>
+      </c>
+      <c r="C591">
+        <v>389.74099999999999</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>37</v>
+      </c>
+      <c r="C592">
+        <v>5287.63</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>90</v>
+      </c>
+      <c r="C593">
+        <v>543.01800000000003</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>33</v>
+      </c>
+      <c r="C594">
+        <v>637.80999999999995</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>68</v>
+      </c>
+      <c r="C595">
+        <v>745.29100000000005</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>62</v>
+      </c>
+      <c r="C596">
+        <v>1537.04</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>32</v>
+      </c>
+      <c r="C597">
+        <v>1946.94</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>88</v>
+      </c>
+      <c r="C598">
+        <v>952.21299999999997</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>15</v>
+      </c>
+      <c r="C599">
+        <v>261.61799999999999</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>92</v>
+      </c>
+      <c r="C600">
+        <v>1366.23</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>54</v>
+      </c>
+      <c r="C601">
+        <v>367.71</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>31</v>
+      </c>
+      <c r="C602">
+        <v>246.28800000000001</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>67</v>
+      </c>
+      <c r="C603">
+        <v>4294.41</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>101</v>
+      </c>
+      <c r="C604">
+        <v>527.04499999999996</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>63</v>
+      </c>
+      <c r="C605">
+        <v>858.827</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>11</v>
+      </c>
+      <c r="C606">
+        <v>1326.53</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>109</v>
+      </c>
+      <c r="C607">
+        <v>643.39300000000003</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>75</v>
+      </c>
+      <c r="C608">
+        <v>733.91499999999996</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>6</v>
+      </c>
+      <c r="C609">
+        <v>836.928</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>5</v>
+      </c>
+      <c r="C610">
+        <v>319.31</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>24</v>
+      </c>
+      <c r="C611">
+        <v>1639.91</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>28</v>
+      </c>
+      <c r="C612">
+        <v>453.56</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>39</v>
+      </c>
+      <c r="C613">
+        <v>1658.1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>55</v>
+      </c>
+      <c r="C614">
+        <v>476.21300000000002</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>19</v>
+      </c>
+      <c r="C615">
+        <v>1109.8699999999999</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>86</v>
+      </c>
+      <c r="C616">
+        <v>560.34100000000001</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>94</v>
+      </c>
+      <c r="C617">
+        <v>1276.1500000000001</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>74</v>
+      </c>
+      <c r="C618">
+        <v>1260.54</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>14</v>
+      </c>
+      <c r="C619">
+        <v>1107.18</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>103</v>
+      </c>
+      <c r="C620">
+        <v>967.97</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>7</v>
+      </c>
+      <c r="C621">
+        <v>1469.37</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>61</v>
+      </c>
+      <c r="C622">
+        <v>1092.31</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>44</v>
+      </c>
+      <c r="C623">
+        <v>1658.66</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>99</v>
+      </c>
+      <c r="C624">
+        <v>1329.74</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>40</v>
+      </c>
+      <c r="C625">
+        <v>371.48700000000002</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>111</v>
+      </c>
+      <c r="C626">
+        <v>970.83100000000002</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>45</v>
+      </c>
+      <c r="C627">
+        <v>1672.74</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>53</v>
+      </c>
+      <c r="C628">
+        <v>1197.18</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>85</v>
+      </c>
+      <c r="C629">
+        <v>1246.43</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>100</v>
+      </c>
+      <c r="C630">
+        <v>1400.01</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>71</v>
+      </c>
+      <c r="C631">
+        <v>1303.8399999999999</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>48</v>
+      </c>
+      <c r="C632">
+        <v>2976.1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>46</v>
+      </c>
+      <c r="C633">
+        <v>874.92100000000005</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>2</v>
+      </c>
+      <c r="C634">
+        <v>4462.5200000000004</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>91</v>
+      </c>
+      <c r="C635">
+        <v>1010.13</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>25</v>
+      </c>
+      <c r="C636">
+        <v>410.94499999999999</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>89</v>
+      </c>
+      <c r="C637">
+        <v>1764.84</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>60</v>
+      </c>
+      <c r="C638">
+        <v>4582.34</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>21</v>
+      </c>
+      <c r="C639">
+        <v>114.36799999999999</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>107</v>
+      </c>
+      <c r="C640">
+        <v>538.91</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>57</v>
+      </c>
+      <c r="C641">
+        <v>1116.29</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>38</v>
+      </c>
+      <c r="C642">
+        <v>1553.9</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>72</v>
+      </c>
+      <c r="C643">
+        <v>325.58199999999999</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>23</v>
+      </c>
+      <c r="C644">
+        <v>542.29</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>112</v>
+      </c>
+      <c r="C645">
+        <v>1504.24</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>3</v>
+      </c>
+      <c r="C646">
+        <v>919.76800000000003</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>73</v>
+      </c>
+      <c r="C647">
+        <v>991.07500000000005</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>78</v>
+      </c>
+      <c r="C648">
+        <v>653.50400000000002</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>17</v>
+      </c>
+      <c r="C649">
+        <v>1186.33</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>29</v>
+      </c>
+      <c r="C650">
+        <v>1616.67</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>84</v>
+      </c>
+      <c r="C651">
+        <v>533.60599999999999</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>42</v>
+      </c>
+      <c r="C652">
+        <v>1306.3699999999999</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>69</v>
+      </c>
+      <c r="C653">
+        <v>428.31599999999997</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>82</v>
+      </c>
+      <c r="C654">
+        <v>146.446</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>49</v>
+      </c>
+      <c r="C655">
+        <v>2449.4499999999998</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>96</v>
+      </c>
+      <c r="C656">
+        <v>779.28300000000002</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>35</v>
+      </c>
+      <c r="C657">
+        <v>600.93399999999997</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>93</v>
+      </c>
+      <c r="C658">
+        <v>309.64</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>106</v>
+      </c>
+      <c r="C659">
+        <v>6152.42</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>47</v>
+      </c>
+      <c r="C660">
+        <v>2214.8000000000002</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>95</v>
+      </c>
+      <c r="C661">
+        <v>470.96499999999997</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>70</v>
+      </c>
+      <c r="C662">
+        <v>938.10799999999995</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>13</v>
+      </c>
+      <c r="C663">
+        <v>1460.27</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>18</v>
+      </c>
+      <c r="C664">
+        <v>1584.36</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>9</v>
+      </c>
+      <c r="C665">
+        <v>1099.19</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>65</v>
+      </c>
+      <c r="C666">
+        <v>3394.38</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>59</v>
+      </c>
+      <c r="C667">
+        <v>371.07900000000001</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>80</v>
+      </c>
+      <c r="C668">
+        <v>1168.99</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>41</v>
+      </c>
+      <c r="C669">
+        <v>229.49</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>12</v>
+      </c>
+      <c r="C670">
+        <v>1268.05</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>87</v>
+      </c>
+      <c r="C671">
+        <v>457.37</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>83</v>
+      </c>
+      <c r="C672">
+        <v>633.88400000000001</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>51</v>
+      </c>
+      <c r="C673">
+        <v>1821.79</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>58</v>
+      </c>
+      <c r="C674">
+        <v>4801.95</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>10</v>
+      </c>
+      <c r="C675">
+        <v>291.08300000000003</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>4</v>
+      </c>
+      <c r="C676">
+        <v>1145.27</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>66</v>
+      </c>
+      <c r="C677">
+        <v>1375.62</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>104</v>
+      </c>
+      <c r="C678">
+        <v>1284.99</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>76</v>
+      </c>
+      <c r="C679">
+        <v>1185.3800000000001</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>34</v>
+      </c>
+      <c r="C680">
+        <v>2329.98</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>30</v>
+      </c>
+      <c r="C681">
+        <v>2400.9</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>8</v>
+      </c>
+      <c r="C682">
+        <v>903.05899999999997</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>43</v>
+      </c>
+      <c r="C683">
+        <v>1359.79</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>20</v>
+      </c>
+      <c r="C684">
+        <v>413.94400000000002</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>22</v>
+      </c>
+      <c r="C685">
+        <v>1261.28</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>56</v>
+      </c>
+      <c r="C686">
+        <v>1159.8399999999999</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>27</v>
+      </c>
+      <c r="C687">
+        <v>3122.76</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>105</v>
+      </c>
+      <c r="C688">
+        <v>951.47799999999995</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>98</v>
+      </c>
+      <c r="C689">
+        <v>1717.89</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>102</v>
+      </c>
+      <c r="C690">
+        <v>4321.12</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>26</v>
+      </c>
+      <c r="C691">
+        <v>164.667</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>1</v>
+      </c>
+      <c r="C692">
+        <v>956.90499999999997</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>16</v>
+      </c>
+      <c r="C693">
+        <v>164.13</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>113</v>
+      </c>
+      <c r="C694">
+        <v>1391.64</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>108</v>
+      </c>
+      <c r="C695">
+        <v>1110.23</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>50</v>
+      </c>
+      <c r="C696">
+        <v>595.61300000000006</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>36</v>
+      </c>
+      <c r="C697">
+        <v>609.774</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>81</v>
+      </c>
+      <c r="C698">
+        <v>1570.39</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>52</v>
+      </c>
+      <c r="C699">
+        <v>1444.8</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>110</v>
+      </c>
+      <c r="C700">
+        <v>4288.93</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>97</v>
+      </c>
+      <c r="C701">
+        <v>121.048</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>64</v>
+      </c>
+      <c r="C702">
+        <v>469.66899999999998</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>79</v>
+      </c>
+      <c r="C703">
+        <v>1068.9100000000001</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>77</v>
+      </c>
+      <c r="C704">
+        <v>387.36900000000003</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>37</v>
+      </c>
+      <c r="C705">
+        <v>5309.71</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>90</v>
+      </c>
+      <c r="C706">
+        <v>543.09400000000005</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>33</v>
+      </c>
+      <c r="C707">
+        <v>631.99</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>68</v>
+      </c>
+      <c r="C708">
+        <v>749.07799999999997</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>62</v>
+      </c>
+      <c r="C709">
+        <v>1534.24</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>32</v>
+      </c>
+      <c r="C710">
+        <v>1910.09</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>88</v>
+      </c>
+      <c r="C711">
+        <v>954.62599999999998</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>15</v>
+      </c>
+      <c r="C712">
+        <v>259.31900000000002</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>92</v>
+      </c>
+      <c r="C713">
+        <v>1365.94</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>54</v>
+      </c>
+      <c r="C714">
+        <v>362.44</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>31</v>
+      </c>
+      <c r="C715">
+        <v>247.697</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>67</v>
+      </c>
+      <c r="C716">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>101</v>
+      </c>
+      <c r="C717">
+        <v>526.96500000000003</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>63</v>
+      </c>
+      <c r="C718">
+        <v>865.83900000000006</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>11</v>
+      </c>
+      <c r="C719">
+        <v>1328.02</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>109</v>
+      </c>
+      <c r="C720">
+        <v>650.654</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>75</v>
+      </c>
+      <c r="C721">
+        <v>736.07500000000005</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>6</v>
+      </c>
+      <c r="C722">
+        <v>837.37300000000005</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>5</v>
+      </c>
+      <c r="C723">
+        <v>318.37599999999998</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>24</v>
+      </c>
+      <c r="C724">
+        <v>1646.59</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>28</v>
+      </c>
+      <c r="C725">
+        <v>455.81599999999997</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>39</v>
+      </c>
+      <c r="C726">
+        <v>1660.98</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>55</v>
+      </c>
+      <c r="C727">
+        <v>472.87799999999999</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>19</v>
+      </c>
+      <c r="C728">
+        <v>1105.9000000000001</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>86</v>
+      </c>
+      <c r="C729">
+        <v>562.05700000000002</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>94</v>
+      </c>
+      <c r="C730">
+        <v>1285.18</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>74</v>
+      </c>
+      <c r="C731">
+        <v>1266.75</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>14</v>
+      </c>
+      <c r="C732">
+        <v>1117.3900000000001</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>103</v>
+      </c>
+      <c r="C733">
+        <v>968.07100000000003</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>7</v>
+      </c>
+      <c r="C734">
+        <v>1454.85</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>61</v>
+      </c>
+      <c r="C735">
+        <v>1090.74</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>44</v>
+      </c>
+      <c r="C736">
+        <v>1672.18</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>99</v>
+      </c>
+      <c r="C737">
+        <v>1332.84</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>40</v>
+      </c>
+      <c r="C738">
+        <v>376.22899999999998</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>111</v>
+      </c>
+      <c r="C739">
+        <v>978.83199999999999</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>45</v>
+      </c>
+      <c r="C740">
+        <v>1681.54</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>53</v>
+      </c>
+      <c r="C741">
+        <v>1209.48</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>85</v>
+      </c>
+      <c r="C742">
+        <v>1251.33</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>100</v>
+      </c>
+      <c r="C743">
+        <v>1415.3</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>71</v>
+      </c>
+      <c r="C744">
+        <v>1312.94</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>48</v>
+      </c>
+      <c r="C745">
+        <v>2976.7</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>46</v>
+      </c>
+      <c r="C746">
+        <v>870.46400000000006</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>2</v>
+      </c>
+      <c r="C747">
+        <v>4462.09</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>91</v>
+      </c>
+      <c r="C748">
+        <v>1016.45</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>25</v>
+      </c>
+      <c r="C749">
+        <v>416.07100000000003</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>89</v>
+      </c>
+      <c r="C750">
+        <v>1771.03</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>60</v>
+      </c>
+      <c r="C751">
+        <v>4627.07</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>21</v>
+      </c>
+      <c r="C752">
+        <v>115.315</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>107</v>
+      </c>
+      <c r="C753">
+        <v>536.76800000000003</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>57</v>
+      </c>
+      <c r="C754">
+        <v>1101.1300000000001</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>38</v>
+      </c>
+      <c r="C755">
+        <v>1561.88</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>72</v>
+      </c>
+      <c r="C756">
+        <v>318.75400000000002</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>23</v>
+      </c>
+      <c r="C757">
+        <v>540.34100000000001</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>112</v>
+      </c>
+      <c r="C758">
+        <v>1507.36</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>3</v>
+      </c>
+      <c r="C759">
+        <v>914.495</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>73</v>
+      </c>
+      <c r="C760">
+        <v>969.23900000000003</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>78</v>
+      </c>
+      <c r="C761">
+        <v>645.072</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>17</v>
+      </c>
+      <c r="C762">
+        <v>1196.1300000000001</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>29</v>
+      </c>
+      <c r="C763">
+        <v>1623.48</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>84</v>
+      </c>
+      <c r="C764">
+        <v>534.59</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>42</v>
+      </c>
+      <c r="C765">
+        <v>1306.27</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>69</v>
+      </c>
+      <c r="C766">
+        <v>430.43299999999999</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>82</v>
+      </c>
+      <c r="C767">
+        <v>147.26</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>49</v>
+      </c>
+      <c r="C768">
+        <v>2454.08</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>96</v>
+      </c>
+      <c r="C769">
+        <v>778.26800000000003</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>35</v>
+      </c>
+      <c r="C770">
+        <v>598.42600000000004</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>93</v>
+      </c>
+      <c r="C771">
+        <v>309.31099999999998</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>106</v>
+      </c>
+      <c r="C772">
+        <v>6191.44</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>47</v>
+      </c>
+      <c r="C773">
+        <v>2221.83</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>95</v>
+      </c>
+      <c r="C774">
+        <v>472.00700000000001</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>70</v>
+      </c>
+      <c r="C775">
+        <v>944.43399999999997</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>13</v>
+      </c>
+      <c r="C776">
+        <v>1450.86</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>18</v>
+      </c>
+      <c r="C777">
+        <v>1578.84</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>9</v>
+      </c>
+      <c r="C778">
+        <v>1096.04</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>65</v>
+      </c>
+      <c r="C779">
+        <v>3373.46</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>59</v>
+      </c>
+      <c r="C780">
+        <v>365.63400000000001</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>80</v>
+      </c>
+      <c r="C781">
+        <v>1163.28</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>41</v>
+      </c>
+      <c r="C782">
+        <v>228.09</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>12</v>
+      </c>
+      <c r="C783">
+        <v>1273.48</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>87</v>
+      </c>
+      <c r="C784">
+        <v>457.49599999999998</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>83</v>
+      </c>
+      <c r="C785">
+        <v>632.21600000000001</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>51</v>
+      </c>
+      <c r="C786">
+        <v>1815.64</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>58</v>
+      </c>
+      <c r="C787">
+        <v>4802.24</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>10</v>
+      </c>
+      <c r="C788">
+        <v>289.14999999999998</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>4</v>
+      </c>
+      <c r="C789">
+        <v>1142.42</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>66</v>
+      </c>
+      <c r="C790">
+        <v>1375.42</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>104</v>
+      </c>
+      <c r="C791">
+        <v>1285.17</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>76</v>
+      </c>
+      <c r="C792">
+        <v>1182.02</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>34</v>
+      </c>
+      <c r="C793">
+        <v>2325.5700000000002</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>30</v>
+      </c>
+      <c r="C794">
+        <v>2394.5</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>8</v>
+      </c>
+      <c r="C795">
+        <v>915.50099999999998</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>43</v>
+      </c>
+      <c r="C796">
+        <v>1344.35</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>20</v>
+      </c>
+      <c r="C797">
+        <v>413.077</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>22</v>
+      </c>
+      <c r="C798">
+        <v>1259.48</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>56</v>
+      </c>
+      <c r="C799">
+        <v>1159.95</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>27</v>
+      </c>
+      <c r="C800">
+        <v>3122.27</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>105</v>
+      </c>
+      <c r="C801">
+        <v>958.55700000000002</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>98</v>
+      </c>
+      <c r="C802">
+        <v>1714.75</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>102</v>
+      </c>
+      <c r="C803">
+        <v>4312.88</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>26</v>
+      </c>
+      <c r="C804">
+        <v>164.24</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>1</v>
+      </c>
+      <c r="C805">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>16</v>
+      </c>
+      <c r="C806">
+        <v>163.40299999999999</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>113</v>
+      </c>
+      <c r="C807">
+        <v>1386.98</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>108</v>
+      </c>
+      <c r="C808">
+        <v>1097.05</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>50</v>
+      </c>
+      <c r="C809">
+        <v>586.63300000000004</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>36</v>
+      </c>
+      <c r="C810">
+        <v>616.49800000000005</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>81</v>
+      </c>
+      <c r="C811">
+        <v>1574.31</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>52</v>
+      </c>
+      <c r="C812">
+        <v>1453.29</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>110</v>
+      </c>
+      <c r="C813">
+        <v>4278.66</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>97</v>
+      </c>
+      <c r="C814">
+        <v>119.932</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>64</v>
+      </c>
+      <c r="C815">
+        <v>471.32900000000001</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>79</v>
+      </c>
+      <c r="C816">
+        <v>1068.1400000000001</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>77</v>
+      </c>
+      <c r="C817">
+        <v>388.07600000000002</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>37</v>
+      </c>
+      <c r="C818">
+        <v>5278.02</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>90</v>
+      </c>
+      <c r="C819">
+        <v>541.41700000000003</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>33</v>
+      </c>
+      <c r="C820">
+        <v>630.50099999999998</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>68</v>
+      </c>
+      <c r="C821">
+        <v>743.76</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>62</v>
+      </c>
+      <c r="C822">
+        <v>1545.72</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>32</v>
+      </c>
+      <c r="C823">
+        <v>1924.44</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>88</v>
+      </c>
+      <c r="C824">
+        <v>959.327</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>15</v>
+      </c>
+      <c r="C825">
+        <v>258.22300000000001</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>92</v>
+      </c>
+      <c r="C826">
+        <v>1365.3</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>54</v>
+      </c>
+      <c r="C827">
+        <v>362.00599999999997</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>31</v>
+      </c>
+      <c r="C828">
+        <v>245.99</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>67</v>
+      </c>
+      <c r="C829">
+        <v>4268.5200000000004</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>101</v>
+      </c>
+      <c r="C830">
+        <v>522.59299999999996</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>63</v>
+      </c>
+      <c r="C831">
+        <v>862.37400000000002</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>11</v>
+      </c>
+      <c r="C832">
+        <v>1324.87</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>109</v>
+      </c>
+      <c r="C833">
+        <v>641.529</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>75</v>
+      </c>
+      <c r="C834">
+        <v>737.41</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>6</v>
+      </c>
+      <c r="C835">
+        <v>828.38099999999997</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>5</v>
+      </c>
+      <c r="C836">
+        <v>320.73599999999999</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>24</v>
+      </c>
+      <c r="C837">
+        <v>1637.43</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>28</v>
+      </c>
+      <c r="C838">
+        <v>453.70499999999998</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>39</v>
+      </c>
+      <c r="C839">
+        <v>1651.45</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>55</v>
+      </c>
+      <c r="C840">
+        <v>470.41800000000001</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>19</v>
+      </c>
+      <c r="C841">
+        <v>1104.6300000000001</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>86</v>
+      </c>
+      <c r="C842">
+        <v>556.30899999999997</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>94</v>
+      </c>
+      <c r="C843">
+        <v>1276.05</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>74</v>
+      </c>
+      <c r="C844">
+        <v>1262.69</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>14</v>
+      </c>
+      <c r="C845">
+        <v>1103.08</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>103</v>
+      </c>
+      <c r="C846">
+        <v>974.68299999999999</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>7</v>
+      </c>
+      <c r="C847">
+        <v>1459.32</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>61</v>
+      </c>
+      <c r="C848">
+        <v>1094.32</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>44</v>
+      </c>
+      <c r="C849">
+        <v>1663.22</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>99</v>
+      </c>
+      <c r="C850">
+        <v>1322.99</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>40</v>
+      </c>
+      <c r="C851">
+        <v>370.29700000000003</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>111</v>
+      </c>
+      <c r="C852">
+        <v>979.36300000000006</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>45</v>
+      </c>
+      <c r="C853">
+        <v>1677.94</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>53</v>
+      </c>
+      <c r="C854">
+        <v>1199.3699999999999</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>85</v>
+      </c>
+      <c r="C855">
+        <v>1246.57</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>100</v>
+      </c>
+      <c r="C856">
+        <v>1393.97</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>71</v>
+      </c>
+      <c r="C857">
+        <v>1307.8800000000001</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>48</v>
+      </c>
+      <c r="C858">
+        <v>2969.15</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>46</v>
+      </c>
+      <c r="C859">
+        <v>885.58399999999995</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>2</v>
+      </c>
+      <c r="C860">
+        <v>4453.8500000000004</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>91</v>
+      </c>
+      <c r="C861">
+        <v>1016.64</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>25</v>
+      </c>
+      <c r="C862">
+        <v>412.67599999999999</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>89</v>
+      </c>
+      <c r="C863">
+        <v>1772.22</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>60</v>
+      </c>
+      <c r="C864">
+        <v>4573.79</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>21</v>
+      </c>
+      <c r="C865">
+        <v>114.88800000000001</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>107</v>
+      </c>
+      <c r="C866">
+        <v>535.93899999999996</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>57</v>
+      </c>
+      <c r="C867">
+        <v>1119.03</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>38</v>
+      </c>
+      <c r="C868">
+        <v>1560.23</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>72</v>
+      </c>
+      <c r="C869">
+        <v>322.62900000000002</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>23</v>
+      </c>
+      <c r="C870">
+        <v>553.28700000000003</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>112</v>
+      </c>
+      <c r="C871">
+        <v>1510.6</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>3</v>
+      </c>
+      <c r="C872">
+        <v>927.91899999999998</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>73</v>
+      </c>
+      <c r="C873">
+        <v>990.00199999999995</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>78</v>
+      </c>
+      <c r="C874">
+        <v>647.46299999999997</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>17</v>
+      </c>
+      <c r="C875">
+        <v>1192.44</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>29</v>
+      </c>
+      <c r="C876">
+        <v>1621.67</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>84</v>
+      </c>
+      <c r="C877">
+        <v>542.04700000000003</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>42</v>
+      </c>
+      <c r="C878">
+        <v>1317.72</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>69</v>
+      </c>
+      <c r="C879">
+        <v>429.77100000000002</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>82</v>
+      </c>
+      <c r="C880">
+        <v>146.75200000000001</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>49</v>
+      </c>
+      <c r="C881">
+        <v>2449.8000000000002</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>96</v>
+      </c>
+      <c r="C882">
+        <v>784.32500000000005</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>35</v>
+      </c>
+      <c r="C883">
+        <v>593.40599999999995</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>93</v>
+      </c>
+      <c r="C884">
+        <v>313.00099999999998</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>106</v>
+      </c>
+      <c r="C885">
+        <v>6168.73</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>47</v>
+      </c>
+      <c r="C886">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>95</v>
+      </c>
+      <c r="C887">
+        <v>466.762</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>70</v>
+      </c>
+      <c r="C888">
+        <v>937.54899999999998</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>13</v>
+      </c>
+      <c r="C889">
+        <v>1450.01</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>18</v>
+      </c>
+      <c r="C890">
+        <v>1575.09</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>9</v>
+      </c>
+      <c r="C891">
+        <v>1096.67</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>65</v>
+      </c>
+      <c r="C892">
+        <v>3371.97</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>59</v>
+      </c>
+      <c r="C893">
+        <v>368.85899999999998</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>80</v>
+      </c>
+      <c r="C894">
+        <v>1161.52</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
+        <v>41</v>
+      </c>
+      <c r="C895">
+        <v>228.90600000000001</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>12</v>
+      </c>
+      <c r="C896">
+        <v>1269.98</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>87</v>
+      </c>
+      <c r="C897">
+        <v>456.52600000000001</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>83</v>
+      </c>
+      <c r="C898">
+        <v>626.78099999999995</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>51</v>
+      </c>
+      <c r="C899">
+        <v>1823.74</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>58</v>
+      </c>
+      <c r="C900">
+        <v>4809.0600000000004</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>10</v>
+      </c>
+      <c r="C901">
+        <v>287.565</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>4</v>
+      </c>
+      <c r="C902">
+        <v>1137.8599999999999</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>66</v>
+      </c>
+      <c r="C903">
+        <v>1376.19</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>104</v>
+      </c>
+      <c r="C904">
+        <v>1278.23</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>76</v>
+      </c>
+      <c r="C905">
         <v>1186.82</v>
       </c>
     </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>34</v>
+      </c>
+      <c r="C906">
+        <v>2329.16</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>30</v>
+      </c>
+      <c r="C907">
+        <v>2412.7199999999998</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>8</v>
+      </c>
+      <c r="C908">
+        <v>911.76800000000003</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>43</v>
+      </c>
+      <c r="C909">
+        <v>1364.33</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>20</v>
+      </c>
+      <c r="C910">
+        <v>417.21899999999999</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>22</v>
+      </c>
+      <c r="C911">
+        <v>1270.71</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>56</v>
+      </c>
+      <c r="C912">
+        <v>1169.8800000000001</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>27</v>
+      </c>
+      <c r="C913">
+        <v>3134.83</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>105</v>
+      </c>
+      <c r="C914">
+        <v>954.77</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>98</v>
+      </c>
+      <c r="C915">
+        <v>1717.92</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>102</v>
+      </c>
+      <c r="C916">
+        <v>4389.3100000000004</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>26</v>
+      </c>
+      <c r="C917">
+        <v>163.315</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A918" t="s">
+        <v>1</v>
+      </c>
+      <c r="C918">
+        <v>951.34699999999998</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>16</v>
+      </c>
+      <c r="C919">
+        <v>163.297</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>113</v>
+      </c>
+      <c r="C920">
+        <v>1392.21</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>108</v>
+      </c>
+      <c r="C921">
+        <v>1110.0999999999999</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>50</v>
+      </c>
+      <c r="C922">
+        <v>596.28200000000004</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>36</v>
+      </c>
+      <c r="C923">
+        <v>610.96</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A924" t="s">
+        <v>81</v>
+      </c>
+      <c r="C924">
+        <v>1575.45</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>52</v>
+      </c>
+      <c r="C925">
+        <v>1455.9</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>110</v>
+      </c>
+      <c r="C926">
+        <v>4288.29</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>97</v>
+      </c>
+      <c r="C927">
+        <v>120.747</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>64</v>
+      </c>
+      <c r="C928">
+        <v>468.05799999999999</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>79</v>
+      </c>
+      <c r="C929">
+        <v>1075.9000000000001</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>77</v>
+      </c>
+      <c r="C930">
+        <v>389.23899999999998</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>37</v>
+      </c>
+      <c r="C931">
+        <v>5293.01</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>90</v>
+      </c>
+      <c r="C932">
+        <v>544.048</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>33</v>
+      </c>
+      <c r="C933">
+        <v>636.96199999999999</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>68</v>
+      </c>
+      <c r="C934">
+        <v>758.86</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>62</v>
+      </c>
+      <c r="C935">
+        <v>1532.64</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>32</v>
+      </c>
+      <c r="C936">
+        <v>1954.04</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>88</v>
+      </c>
+      <c r="C937">
+        <v>952.76400000000001</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>15</v>
+      </c>
+      <c r="C938">
+        <v>262.01400000000001</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>92</v>
+      </c>
+      <c r="C939">
+        <v>1366.29</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>54</v>
+      </c>
+      <c r="C940">
+        <v>358.90899999999999</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>31</v>
+      </c>
+      <c r="C941">
+        <v>246.61600000000001</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
+        <v>67</v>
+      </c>
+      <c r="C942">
+        <v>4293.59</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A943" t="s">
+        <v>101</v>
+      </c>
+      <c r="C943">
+        <v>525.51300000000003</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A944" t="s">
+        <v>63</v>
+      </c>
+      <c r="C944">
+        <v>856.76599999999996</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>11</v>
+      </c>
+      <c r="C945">
+        <v>1327.41</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>109</v>
+      </c>
+      <c r="C946">
+        <v>649.84500000000003</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>75</v>
+      </c>
+      <c r="C947">
+        <v>737.71900000000005</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>6</v>
+      </c>
+      <c r="C948">
+        <v>838.79899999999998</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>5</v>
+      </c>
+      <c r="C949">
+        <v>323.52300000000002</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>24</v>
+      </c>
+      <c r="C950">
+        <v>1650.19</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>28</v>
+      </c>
+      <c r="C951">
+        <v>457.23899999999998</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>39</v>
+      </c>
+      <c r="C952">
+        <v>1660.65</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>55</v>
+      </c>
+      <c r="C953">
+        <v>476.16500000000002</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>19</v>
+      </c>
+      <c r="C954">
+        <v>1104.46</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>86</v>
+      </c>
+      <c r="C955">
+        <v>559.53200000000004</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>94</v>
+      </c>
+      <c r="C956">
+        <v>1277.25</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>74</v>
+      </c>
+      <c r="C957">
+        <v>1263.18</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>14</v>
+      </c>
+      <c r="C958">
+        <v>1111.78</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>103</v>
+      </c>
+      <c r="C959">
+        <v>966.56799999999998</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>7</v>
+      </c>
+      <c r="C960">
+        <v>1457.12</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>61</v>
+      </c>
+      <c r="C961">
+        <v>1094.74</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A962" t="s">
+        <v>44</v>
+      </c>
+      <c r="C962">
+        <v>1662.9</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A963" t="s">
+        <v>99</v>
+      </c>
+      <c r="C963">
+        <v>1333.42</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A964" t="s">
+        <v>40</v>
+      </c>
+      <c r="C964">
+        <v>366.24400000000003</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A965" t="s">
+        <v>111</v>
+      </c>
+      <c r="C965">
+        <v>972.76599999999996</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A966" t="s">
+        <v>45</v>
+      </c>
+      <c r="C966">
+        <v>1693.2</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A967" t="s">
+        <v>53</v>
+      </c>
+      <c r="C967">
+        <v>1201.01</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A968" t="s">
+        <v>85</v>
+      </c>
+      <c r="C968">
+        <v>1256.19</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A969" t="s">
+        <v>100</v>
+      </c>
+      <c r="C969">
+        <v>1396.46</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A970" t="s">
+        <v>71</v>
+      </c>
+      <c r="C970">
+        <v>1306.4100000000001</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A971" t="s">
+        <v>48</v>
+      </c>
+      <c r="C971">
+        <v>2994.43</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A972" t="s">
+        <v>46</v>
+      </c>
+      <c r="C972">
+        <v>879.34699999999998</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A973" t="s">
+        <v>2</v>
+      </c>
+      <c r="C973">
+        <v>4476.47</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A974" t="s">
+        <v>91</v>
+      </c>
+      <c r="C974">
+        <v>1016.99</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A975" t="s">
+        <v>25</v>
+      </c>
+      <c r="C975">
+        <v>410.26</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A976" t="s">
+        <v>89</v>
+      </c>
+      <c r="C976">
+        <v>1770.76</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A977" t="s">
+        <v>60</v>
+      </c>
+      <c r="C977">
+        <v>4640.38</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A978" t="s">
+        <v>21</v>
+      </c>
+      <c r="C978">
+        <v>115.496</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A979" t="s">
+        <v>107</v>
+      </c>
+      <c r="C979">
+        <v>539.90099999999995</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A980" t="s">
+        <v>57</v>
+      </c>
+      <c r="C980">
+        <v>1119.3699999999999</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A981" t="s">
+        <v>38</v>
+      </c>
+      <c r="C981">
+        <v>1582.78</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A982" t="s">
+        <v>72</v>
+      </c>
+      <c r="C982">
+        <v>319.12</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A983" t="s">
+        <v>23</v>
+      </c>
+      <c r="C983">
+        <v>542.14400000000001</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A984" t="s">
+        <v>112</v>
+      </c>
+      <c r="C984">
+        <v>1503.24</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A985" t="s">
+        <v>3</v>
+      </c>
+      <c r="C985">
+        <v>930.80799999999999</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A986" t="s">
+        <v>73</v>
+      </c>
+      <c r="C986">
+        <v>996.78399999999999</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A987" t="s">
+        <v>78</v>
+      </c>
+      <c r="C987">
+        <v>646.46299999999997</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A988" t="s">
+        <v>17</v>
+      </c>
+      <c r="C988">
+        <v>1191.42</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A989" t="s">
+        <v>29</v>
+      </c>
+      <c r="C989">
+        <v>1621.7</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A990" t="s">
+        <v>84</v>
+      </c>
+      <c r="C990">
+        <v>534.87300000000005</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A991" t="s">
+        <v>42</v>
+      </c>
+      <c r="C991">
+        <v>1317.45</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A992" t="s">
+        <v>69</v>
+      </c>
+      <c r="C992">
+        <v>429.5</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>82</v>
+      </c>
+      <c r="C993">
+        <v>147.96100000000001</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A994" t="s">
+        <v>49</v>
+      </c>
+      <c r="C994">
+        <v>2457.06</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>96</v>
+      </c>
+      <c r="C995">
+        <v>778.16</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A996" t="s">
+        <v>35</v>
+      </c>
+      <c r="C996">
+        <v>601.76700000000005</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>93</v>
+      </c>
+      <c r="C997">
+        <v>313.173</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A998" t="s">
+        <v>106</v>
+      </c>
+      <c r="C998">
+        <v>6183.63</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>47</v>
+      </c>
+      <c r="C999">
+        <v>2231.91</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1000">
+        <v>470.738</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1001">
+        <v>946.77200000000005</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1002">
+        <v>1460.04</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1003">
+        <v>1586.12</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1004">
+        <v>1096.32</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1005">
+        <v>3409.34</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1006" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1006">
+        <v>369.601</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1007">
+        <v>1168.98</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1008">
+        <v>230.904</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1009" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1009">
+        <v>1283.83</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1010" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1010">
+        <v>459.88099999999997</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1011" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1011">
+        <v>631.59100000000001</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1012" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1012">
+        <v>1835.54</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1013" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1013">
+        <v>4827.2700000000004</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1014" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1014">
+        <v>286.55200000000002</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1015" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1015">
+        <v>1143.97</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1016" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1016">
+        <v>1374.63</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1017" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1017">
+        <v>1291.23</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1018" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1018">
+        <v>1195.43</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1019" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1019">
+        <v>2327.5300000000002</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1020" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1020">
+        <v>2395.2600000000002</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1021" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1021">
+        <v>917.04300000000001</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1022" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1022">
+        <v>1353.57</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1023" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1023">
+        <v>420.85199999999998</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1024">
+        <v>1257.54</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1025" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1025">
+        <v>1176.0999999999999</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1026" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1026">
+        <v>3139.17</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1027" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1027">
+        <v>955.255</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1028" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1028">
+        <v>1722.43</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1029" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1029">
+        <v>4336.1000000000004</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1030" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1030">
+        <v>165.268</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1031" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1031">
+        <v>949.62400000000002</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1032" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1032">
+        <v>162.667</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1033" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1033">
+        <v>1390.86</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1034" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1034">
+        <v>1095.79</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1035" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1035">
+        <v>596.09</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1036" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1036">
+        <v>620.04200000000003</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1037" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1037">
+        <v>1581.55</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1038" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1038">
+        <v>1448.97</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1039" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1039">
+        <v>4287.38</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1040" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1040">
+        <v>121.011</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1041" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1041">
+        <v>469.75299999999999</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1042" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1042">
+        <v>1075.1300000000001</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1043" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1043">
+        <v>387.62099999999998</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1044" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1044">
+        <v>5299.06</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1045" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1045">
+        <v>538.13699999999994</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1046" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1046">
+        <v>635.471</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1047" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1047">
+        <v>746.69100000000003</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1048" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1048">
+        <v>1528.05</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1049" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1049">
+        <v>1945.19</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1050" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1050">
+        <v>962.84500000000003</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1051" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1051">
+        <v>258.31200000000001</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1052" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1052">
+        <v>1368.17</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1053" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1053">
+        <v>364.70499999999998</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1054" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1054">
+        <v>245.749</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1055" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1055">
+        <v>4277.05</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1056" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1056">
+        <v>522.471</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1057" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1057">
+        <v>865.61500000000001</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1058" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1058">
+        <v>1325.74</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1059" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1059">
+        <v>645.63400000000001</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1060" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1060">
+        <v>734.75699999999995</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1061" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1061">
+        <v>834.54499999999996</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1062" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1062">
+        <v>316.8</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1063" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1063">
+        <v>1641.23</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1064" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1064">
+        <v>456.37299999999999</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1065" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1065">
+        <v>1661.88</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1066" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1066">
+        <v>470.96899999999999</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1067" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1067">
+        <v>1104.53</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1068" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1068">
+        <v>561.86500000000001</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1069" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1069">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1070" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1070">
+        <v>1264.68</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1071" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1071">
+        <v>1104.8800000000001</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1072" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1072">
+        <v>975.40499999999997</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1073" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1073">
+        <v>1459.09</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1074" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1074">
+        <v>1110.74</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1075" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1075">
+        <v>1674.24</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1076" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1076">
+        <v>1329.13</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1077" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1077">
+        <v>366.18799999999999</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1078" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1078">
+        <v>980.51800000000003</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1079" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1079">
+        <v>1677.92</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1080" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1080">
+        <v>1214.4000000000001</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1081" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1081">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1082" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1082">
+        <v>1402.85</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1083" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1083">
+        <v>1319.14</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1084" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1084">
+        <v>2995.53</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1085" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1085">
+        <v>890.36599999999999</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1086" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1086">
+        <v>4475.6000000000004</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1087" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1087">
+        <v>1018.78</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1088" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1088">
+        <v>419.798</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1089" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1089">
+        <v>1773.09</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1090" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1090">
+        <v>4626.74</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1091" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1091">
+        <v>113.994</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1092" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1092">
+        <v>537.41899999999998</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1093" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1093">
+        <v>1123.47</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1094" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1094">
+        <v>1555.18</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1095" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1095">
+        <v>320.56799999999998</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1096" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1096">
+        <v>542.99300000000005</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1097" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1097">
+        <v>1508.07</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1098" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1098">
+        <v>927.44899999999996</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1099" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1099">
+        <v>988.71100000000001</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1100" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1100">
+        <v>645.58500000000004</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1101">
+        <v>1190.25</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1102" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1102">
+        <v>1617.35</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1103">
+        <v>541.08399999999995</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1104" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1104">
+        <v>1314.02</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1105" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1105">
+        <v>428.26900000000001</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1106" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1106">
+        <v>147.946</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1107" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1107">
+        <v>2452.9499999999998</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1108" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1108">
+        <v>784.495</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1109" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1109">
+        <v>597.59699999999998</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1110" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1110">
+        <v>311.69499999999999</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1111">
+        <v>6183.84</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1112">
+        <v>2228.8000000000002</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1113" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1113">
+        <v>470.50299999999999</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1114">
+        <v>938.71299999999997</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1115">
+        <v>1458.9</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1116">
+        <v>1581.17</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1117">
+        <v>1093.43</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1118" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1118">
+        <v>3378.2</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1119" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1119">
+        <v>367.048</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1120" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1120">
+        <v>1162.69</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1121">
+        <v>232.523</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1122">
+        <v>1276.8900000000001</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1123" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1123">
+        <v>457.69400000000002</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1124" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1124">
+        <v>630.35400000000004</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1125">
+        <v>1853.62</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1126" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1126">
+        <v>4833.37</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1127">
+        <v>291.04899999999998</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1128">
+        <v>1150.21</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1129" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1129">
+        <v>1393.05</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1130" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1130">
+        <v>1291.8699999999999</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1131" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1131">
+        <v>1186.77</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{3C65D470-C02B-104A-988B-0126A948A388}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C114">
+  <autoFilter ref="A1:D1" xr:uid="{3C65D470-C02B-104A-988B-0126A948A388}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D114">
       <sortCondition ref="A1:A114"/>
     </sortState>
   </autoFilter>

--- a/chuying/visualization/2.with timer/output-total.xlsx
+++ b/chuying/visualization/2.with timer/output-total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chuyinghe/Documents/duckdb-master-rl/chuying/visualization/2.with timer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D246AD91-DD34-AF44-9382-8D22772B0587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6F98A2-7C93-964E-840A-63E1AF26E635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="-21140" windowWidth="17000" windowHeight="19540" xr2:uid="{4BC63D49-B4F6-E248-AB4E-285880F5BF28}"/>
   </bookViews>
@@ -785,7 +785,7 @@
   <dimension ref="A1:C1131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
